--- a/Excel Files/Experimental Data.xlsx
+++ b/Excel Files/Experimental Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Steady State 2-20" sheetId="1" state="hidden" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="24.4 C Run 2" sheetId="11" r:id="rId7"/>
     <sheet name="24.4 Run 3" sheetId="12" r:id="rId8"/>
     <sheet name="37.5 DegC Steady State" sheetId="13" r:id="rId9"/>
-    <sheet name="25 C Steady State" sheetId="6" state="hidden" r:id="rId10"/>
-    <sheet name="Run 2 2-27" sheetId="7" state="hidden" r:id="rId11"/>
-    <sheet name="Run 3 2-7" sheetId="8" state="hidden" r:id="rId12"/>
+    <sheet name="37.5 Run 2" sheetId="14" r:id="rId10"/>
+    <sheet name="25 C Steady State" sheetId="6" state="hidden" r:id="rId11"/>
+    <sheet name="Run 2 2-27" sheetId="7" state="hidden" r:id="rId12"/>
+    <sheet name="Run 3 2-7" sheetId="8" state="hidden" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7969" uniqueCount="4319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8796" uniqueCount="4788">
   <si>
     <t>Temp degC</t>
   </si>
@@ -12992,6 +12993,1413 @@
   </si>
   <si>
     <t>1 Jun 2099 / 12:09:59 PM/Ch5</t>
+  </si>
+  <si>
+    <t>286.2 uS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:02:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>30.4 C(ATC)</t>
+  </si>
+  <si>
+    <t>17.26 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:02:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>36.2 C(ATC)</t>
+  </si>
+  <si>
+    <t>24.72 uS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:02:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:01:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.356 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:01:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:01:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.357 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:01:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.359 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:01:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.361 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:01:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.366 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:01:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.365 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:01:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:01:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.370 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:01:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.374 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:01:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:01:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:00:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.379 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:00:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.381 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:00:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.382 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:00:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.392 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:00:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:00:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.084 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:00:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.085 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:00:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.088 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:00:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:00:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.089 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:00:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.090 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:00:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.093 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:59:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.096 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:59:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:59:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.097 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:59:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.099 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:59:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.100 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:59:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:59:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.098 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:59:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:59:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:59:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.103 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:59:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:59:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.104 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:58:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.106 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:58:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.108 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:58:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.109 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:58:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.112 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:58:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.113 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:58:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.117 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:58:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:58:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.118 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:58:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.123 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:58:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.124 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:58:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.125 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:58:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.127 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:57:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.129 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:57:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.130 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:57:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.133 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:57:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.135 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:57:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.137 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:57:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.139 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:57:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.140 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:57:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.142 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:57:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:57:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.144 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:57:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.147 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:57:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.150 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:56:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.152 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:56:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.153 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:56:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.155 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:56:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.158 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:56:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.160 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:56:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.163 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:56:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.164 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:56:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.169 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:56:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.170 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:56:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:56:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.174 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:56:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.176 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:55:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.179 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:55:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.182 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:55:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.183 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:55:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.185 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:55:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.187 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:55:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.189 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:55:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.193 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:55:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.195 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:55:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.198 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:55:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.202 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:55:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.204 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:55:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.207 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:54:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.208 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:54:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.212 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:54:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.213 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:54:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.216 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:54:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.218 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:54:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.222 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:54:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.224 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:54:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.228 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:54:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.232 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:54:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.234 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:54:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.237 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:54:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.239 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:53:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.243 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:53:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.245 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:53:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:53:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.249 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:53:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.253 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:53:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.257 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:53:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.260 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:53:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.265 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:53:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.266 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:53:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.269 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:53:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.272 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:53:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.276 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:52:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.280 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:52:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.283 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:52:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.287 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:52:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.290 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:52:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.295 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:52:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.297 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:52:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.299 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:52:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.304 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:52:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.306 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:52:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.311 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:52:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.313 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:52:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.321 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:51:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:51:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.329 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:51:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.333 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:51:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.336 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:51:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.340 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:51:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.345 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:51:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.348 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:51:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.354 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:51:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.360 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:51:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.363 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:51:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.368 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:51:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.371 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:50:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.376 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:50:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.381 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:50:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.383 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:50:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.388 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:50:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.394 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:50:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.397 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:50:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.405 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:50:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.410 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:50:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.417 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:50:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.425 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:50:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.430 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:50:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.434 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:49:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:49:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.439 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:49:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.447 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:49:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:49:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:49:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:49:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:49:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:49:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:49:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:49:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:49:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:48:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:48:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.521 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:48:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:48:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.528 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:48:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:48:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:48:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:48:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:48:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:48:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:48:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.572 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:48:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:47:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.593 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:47:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.597 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:47:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.614 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:47:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:47:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:47:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.632 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:47:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:47:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:47:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:47:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.673 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:47:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:47:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:46:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:46:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:46:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.723 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:46:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.733 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:46:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.745 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:46:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:46:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.772 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:46:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.783 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:46:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:46:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:46:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.817 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:46:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.832 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:45:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.847 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:45:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:45:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.867 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:45:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.881 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:45:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.896 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:45:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.906 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:45:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.931 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:45:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:45:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:45:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:45:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:45:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.994 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:44:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.014 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:44:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:44:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:44:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:44:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.090 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:44:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:44:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.128 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:44:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.145 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:44:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:44:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.189 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:44:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:44:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:43:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:43:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:43:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:43:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:43:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:43:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:43:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:43:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:43:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:43:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.513 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:43:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.544 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:43:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:42:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:42:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.657 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:42:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:42:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.740 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:42:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:42:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.826 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:42:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.876 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:42:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:42:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:42:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.013 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:42:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:42:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.125 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:41:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:41:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.247 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:41:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:41:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.372 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:41:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.441 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:41:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.516 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:41:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.593 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:41:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.676 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:41:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.759 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:41:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.855 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:41:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.940 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:41:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>7.044 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:40:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>7.156 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:40:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>7.253 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:40:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>7.377 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:40:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>7.512 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:40:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>7.658 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:40:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>7.810 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:40:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>7.971 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:40:22 PM/Ch5</t>
+  </si>
+  <si>
+    <t>8.151 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:40:17 PM/Ch5</t>
+  </si>
+  <si>
+    <t>8.339 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:40:12 PM/Ch5</t>
+  </si>
+  <si>
+    <t>8.560 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:40:07 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:40:02 PM/Ch5</t>
+  </si>
+  <si>
+    <t>8.999 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:39:57 PM/Ch5</t>
+  </si>
+  <si>
+    <t>9.293 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:39:52 PM/Ch5</t>
+  </si>
+  <si>
+    <t>9.576 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:39:47 PM/Ch5</t>
+  </si>
+  <si>
+    <t>9.902 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:39:42 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:39:37 PM/Ch5</t>
+  </si>
+  <si>
+    <t>10.44 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:39:32 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 1:39:27 PM/Ch5</t>
   </si>
 </sst>
 </file>
@@ -13366,11 +14774,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="443103488"/>
-        <c:axId val="443110936"/>
+        <c:axId val="437410936"/>
+        <c:axId val="437400352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="443103488"/>
+        <c:axId val="437410936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13427,12 +14835,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443110936"/>
+        <c:crossAx val="437400352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="443110936"/>
+        <c:axId val="437400352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13489,7 +14897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443103488"/>
+        <c:crossAx val="437410936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13856,11 +15264,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="443113288"/>
-        <c:axId val="443114464"/>
+        <c:axId val="437401528"/>
+        <c:axId val="437408192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="443113288"/>
+        <c:axId val="437401528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13917,12 +15325,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443114464"/>
+        <c:crossAx val="437408192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="443114464"/>
+        <c:axId val="437408192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13979,7 +15387,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443113288"/>
+        <c:crossAx val="437401528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14336,11 +15744,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="443105840"/>
-        <c:axId val="443109368"/>
+        <c:axId val="437402312"/>
+        <c:axId val="437402704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="443105840"/>
+        <c:axId val="437402312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14397,12 +15805,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443109368"/>
+        <c:crossAx val="437402704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="443109368"/>
+        <c:axId val="437402704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14459,7 +15867,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443105840"/>
+        <c:crossAx val="437402312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14816,11 +16224,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="443112896"/>
-        <c:axId val="443114072"/>
+        <c:axId val="437413680"/>
+        <c:axId val="437419168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="443112896"/>
+        <c:axId val="437413680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14877,12 +16285,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443114072"/>
+        <c:crossAx val="437419168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="443114072"/>
+        <c:axId val="437419168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14939,7 +16347,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443112896"/>
+        <c:crossAx val="437413680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17232,7 +18640,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18984892-4E9D-8140-B05B-EBD686F02D98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18984892-4E9D-8140-B05B-EBD686F02D98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17273,7 +18681,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17314,7 +18722,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17357,7 +18765,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18247,6 +19655,5237 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E319"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4787</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D2" t="str">
+        <f>SUBSTITUTE(A2, "mS/cm", "")</f>
+        <v xml:space="preserve">11.19 </v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>4785</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4786</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D3" t="str">
+        <f>SUBSTITUTE(A3, "mS/cm", "")</f>
+        <v xml:space="preserve">10.44 </v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4784</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D4" t="str">
+        <f>SUBSTITUTE(A4, "mS/cm", "")</f>
+        <v xml:space="preserve">10.20 </v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>4782</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4783</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D5" t="str">
+        <f>SUBSTITUTE(A5, "mS/cm", "")</f>
+        <v xml:space="preserve">9.902 </v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>4780</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>4781</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D6" t="str">
+        <f>SUBSTITUTE(A6, "mS/cm", "")</f>
+        <v xml:space="preserve">9.576 </v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>4779</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D7" t="str">
+        <f>SUBSTITUTE(A7, "mS/cm", "")</f>
+        <v xml:space="preserve">9.293 </v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>4776</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>4777</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D8" t="str">
+        <f>SUBSTITUTE(A8, "mS/cm", "")</f>
+        <v xml:space="preserve">8.999 </v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>4775</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D9" t="str">
+        <f>SUBSTITUTE(A9, "mS/cm", "")</f>
+        <v xml:space="preserve">8.784 </v>
+      </c>
+      <c r="E9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>4773</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>4774</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D10" t="str">
+        <f>SUBSTITUTE(A10, "mS/cm", "")</f>
+        <v xml:space="preserve">8.560 </v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>4771</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>4772</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D11" t="str">
+        <f>SUBSTITUTE(A11, "mS/cm", "")</f>
+        <v xml:space="preserve">8.339 </v>
+      </c>
+      <c r="E11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>4769</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>4770</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D12" t="str">
+        <f>SUBSTITUTE(A12, "mS/cm", "")</f>
+        <v xml:space="preserve">8.151 </v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>4767</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>4768</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D13" t="str">
+        <f>SUBSTITUTE(A13, "mS/cm", "")</f>
+        <v xml:space="preserve">7.971 </v>
+      </c>
+      <c r="E13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>4765</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>4766</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D14" t="str">
+        <f>SUBSTITUTE(A14, "mS/cm", "")</f>
+        <v xml:space="preserve">7.810 </v>
+      </c>
+      <c r="E14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>4763</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>4764</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D15" t="str">
+        <f>SUBSTITUTE(A15, "mS/cm", "")</f>
+        <v xml:space="preserve">7.658 </v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>4761</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>4762</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D16" t="str">
+        <f>SUBSTITUTE(A16, "mS/cm", "")</f>
+        <v xml:space="preserve">7.512 </v>
+      </c>
+      <c r="E16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>4759</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>4760</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D17" t="str">
+        <f>SUBSTITUTE(A17, "mS/cm", "")</f>
+        <v xml:space="preserve">7.377 </v>
+      </c>
+      <c r="E17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>4757</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>4758</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D18" t="str">
+        <f>SUBSTITUTE(A18, "mS/cm", "")</f>
+        <v xml:space="preserve">7.253 </v>
+      </c>
+      <c r="E18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>4755</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>4756</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D19" t="str">
+        <f>SUBSTITUTE(A19, "mS/cm", "")</f>
+        <v xml:space="preserve">7.156 </v>
+      </c>
+      <c r="E19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>4753</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D20" t="str">
+        <f>SUBSTITUTE(A20, "mS/cm", "")</f>
+        <v xml:space="preserve">7.044 </v>
+      </c>
+      <c r="E20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>4751</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>4752</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D21" t="str">
+        <f>SUBSTITUTE(A21, "mS/cm", "")</f>
+        <v xml:space="preserve">6.940 </v>
+      </c>
+      <c r="E21">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>4749</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>4750</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D22" t="str">
+        <f>SUBSTITUTE(A22, "mS/cm", "")</f>
+        <v xml:space="preserve">6.855 </v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>4747</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>4748</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D23" t="str">
+        <f>SUBSTITUTE(A23, "mS/cm", "")</f>
+        <v xml:space="preserve">6.759 </v>
+      </c>
+      <c r="E23">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>4745</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>4746</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D24" t="str">
+        <f>SUBSTITUTE(A24, "mS/cm", "")</f>
+        <v xml:space="preserve">6.676 </v>
+      </c>
+      <c r="E24">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>4743</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>4744</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D25" t="str">
+        <f>SUBSTITUTE(A25, "mS/cm", "")</f>
+        <v xml:space="preserve">6.593 </v>
+      </c>
+      <c r="E25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>4741</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>4742</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D26" t="str">
+        <f>SUBSTITUTE(A26, "mS/cm", "")</f>
+        <v xml:space="preserve">6.516 </v>
+      </c>
+      <c r="E26">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>4739</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>4740</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D27" t="str">
+        <f>SUBSTITUTE(A27, "mS/cm", "")</f>
+        <v xml:space="preserve">6.441 </v>
+      </c>
+      <c r="E27">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>4737</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>4738</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D28" t="str">
+        <f>SUBSTITUTE(A28, "mS/cm", "")</f>
+        <v xml:space="preserve">6.372 </v>
+      </c>
+      <c r="E28">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>4736</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D29" t="str">
+        <f>SUBSTITUTE(A29, "mS/cm", "")</f>
+        <v xml:space="preserve">6.307 </v>
+      </c>
+      <c r="E29">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>4734</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>4735</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D30" t="str">
+        <f>SUBSTITUTE(A30, "mS/cm", "")</f>
+        <v xml:space="preserve">6.247 </v>
+      </c>
+      <c r="E30">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>4733</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D31" t="str">
+        <f>SUBSTITUTE(A31, "mS/cm", "")</f>
+        <v xml:space="preserve">6.183 </v>
+      </c>
+      <c r="E31">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>4731</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>4732</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D32" t="str">
+        <f>SUBSTITUTE(A32, "mS/cm", "")</f>
+        <v xml:space="preserve">6.125 </v>
+      </c>
+      <c r="E32">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>4730</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D33" t="str">
+        <f>SUBSTITUTE(A33, "mS/cm", "")</f>
+        <v xml:space="preserve">6.067 </v>
+      </c>
+      <c r="E33">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>4728</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>4729</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D34" t="str">
+        <f>SUBSTITUTE(A34, "mS/cm", "")</f>
+        <v xml:space="preserve">6.013 </v>
+      </c>
+      <c r="E34">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>4727</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D35" t="str">
+        <f>SUBSTITUTE(A35, "mS/cm", "")</f>
+        <v xml:space="preserve">5.956 </v>
+      </c>
+      <c r="E35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>4726</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D36" t="str">
+        <f>SUBSTITUTE(A36, "mS/cm", "")</f>
+        <v xml:space="preserve">5.922 </v>
+      </c>
+      <c r="E36">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>4724</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>4725</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D37" t="str">
+        <f>SUBSTITUTE(A37, "mS/cm", "")</f>
+        <v xml:space="preserve">5.876 </v>
+      </c>
+      <c r="E37">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>4722</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>4723</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D38" t="str">
+        <f>SUBSTITUTE(A38, "mS/cm", "")</f>
+        <v xml:space="preserve">5.826 </v>
+      </c>
+      <c r="E38">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>4721</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D39" t="str">
+        <f>SUBSTITUTE(A39, "mS/cm", "")</f>
+        <v xml:space="preserve">5.791 </v>
+      </c>
+      <c r="E39">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>4719</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>4720</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D40" t="str">
+        <f>SUBSTITUTE(A40, "mS/cm", "")</f>
+        <v xml:space="preserve">5.740 </v>
+      </c>
+      <c r="E40">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>4718</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D41" t="str">
+        <f>SUBSTITUTE(A41, "mS/cm", "")</f>
+        <v xml:space="preserve">5.693 </v>
+      </c>
+      <c r="E41">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>4716</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>4717</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D42" t="str">
+        <f>SUBSTITUTE(A42, "mS/cm", "")</f>
+        <v xml:space="preserve">5.657 </v>
+      </c>
+      <c r="E42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>4715</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D43" t="str">
+        <f>SUBSTITUTE(A43, "mS/cm", "")</f>
+        <v xml:space="preserve">5.609 </v>
+      </c>
+      <c r="E43">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>4714</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D44" t="str">
+        <f>SUBSTITUTE(A44, "mS/cm", "")</f>
+        <v xml:space="preserve">5.577 </v>
+      </c>
+      <c r="E44">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>4712</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>4713</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D45" t="str">
+        <f>SUBSTITUTE(A45, "mS/cm", "")</f>
+        <v xml:space="preserve">5.544 </v>
+      </c>
+      <c r="E45">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>4710</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>4711</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D46" t="str">
+        <f>SUBSTITUTE(A46, "mS/cm", "")</f>
+        <v xml:space="preserve">5.513 </v>
+      </c>
+      <c r="E46">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>3630</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>4709</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D47" t="str">
+        <f>SUBSTITUTE(A47, "mS/cm", "")</f>
+        <v xml:space="preserve">5.479 </v>
+      </c>
+      <c r="E47">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>4708</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D48" t="str">
+        <f>SUBSTITUTE(A48, "mS/cm", "")</f>
+        <v xml:space="preserve">5.447 </v>
+      </c>
+      <c r="E48">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>4707</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D49" t="str">
+        <f>SUBSTITUTE(A49, "mS/cm", "")</f>
+        <v xml:space="preserve">5.431 </v>
+      </c>
+      <c r="E49">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>4144</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>4706</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D50" t="str">
+        <f>SUBSTITUTE(A50, "mS/cm", "")</f>
+        <v xml:space="preserve">5.403 </v>
+      </c>
+      <c r="E50">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>4705</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D51" t="str">
+        <f>SUBSTITUTE(A51, "mS/cm", "")</f>
+        <v xml:space="preserve">5.379 </v>
+      </c>
+      <c r="E51">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>4704</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D52" t="str">
+        <f>SUBSTITUTE(A52, "mS/cm", "")</f>
+        <v xml:space="preserve">5.351 </v>
+      </c>
+      <c r="E52">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>4703</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D53" t="str">
+        <f>SUBSTITUTE(A53, "mS/cm", "")</f>
+        <v xml:space="preserve">5.323 </v>
+      </c>
+      <c r="E53">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>4702</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D54" t="str">
+        <f>SUBSTITUTE(A54, "mS/cm", "")</f>
+        <v xml:space="preserve">5.286 </v>
+      </c>
+      <c r="E54">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>4701</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D55" t="str">
+        <f>SUBSTITUTE(A55, "mS/cm", "")</f>
+        <v xml:space="preserve">5.269 </v>
+      </c>
+      <c r="E55">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>4700</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D56" t="str">
+        <f>SUBSTITUTE(A56, "mS/cm", "")</f>
+        <v xml:space="preserve">5.232 </v>
+      </c>
+      <c r="E56">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>4699</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D57" t="str">
+        <f>SUBSTITUTE(A57, "mS/cm", "")</f>
+        <v xml:space="preserve">5.217 </v>
+      </c>
+      <c r="E57">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>4697</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>4698</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D58" t="str">
+        <f>SUBSTITUTE(A58, "mS/cm", "")</f>
+        <v xml:space="preserve">5.189 </v>
+      </c>
+      <c r="E58">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>4696</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D59" t="str">
+        <f>SUBSTITUTE(A59, "mS/cm", "")</f>
+        <v xml:space="preserve">5.156 </v>
+      </c>
+      <c r="E59">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>4694</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>4695</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D60" t="str">
+        <f>SUBSTITUTE(A60, "mS/cm", "")</f>
+        <v xml:space="preserve">5.145 </v>
+      </c>
+      <c r="E60">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>4692</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>4693</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D61" t="str">
+        <f>SUBSTITUTE(A61, "mS/cm", "")</f>
+        <v xml:space="preserve">5.128 </v>
+      </c>
+      <c r="E61">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>4691</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D62" t="str">
+        <f>SUBSTITUTE(A62, "mS/cm", "")</f>
+        <v xml:space="preserve">5.107 </v>
+      </c>
+      <c r="E62">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>4689</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>4690</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D63" t="str">
+        <f>SUBSTITUTE(A63, "mS/cm", "")</f>
+        <v xml:space="preserve">5.090 </v>
+      </c>
+      <c r="E63">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>4688</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D64" t="str">
+        <f>SUBSTITUTE(A64, "mS/cm", "")</f>
+        <v xml:space="preserve">5.070 </v>
+      </c>
+      <c r="E64">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>4687</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D65" t="str">
+        <f>SUBSTITUTE(A65, "mS/cm", "")</f>
+        <v xml:space="preserve">5.046 </v>
+      </c>
+      <c r="E65">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>4686</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D66" t="str">
+        <f>SUBSTITUTE(A66, "mS/cm", "")</f>
+        <v xml:space="preserve">5.037 </v>
+      </c>
+      <c r="E66">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>4684</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>4685</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D67" t="str">
+        <f>SUBSTITUTE(A67, "mS/cm", "")</f>
+        <v xml:space="preserve">5.014 </v>
+      </c>
+      <c r="E67">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>4682</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>4683</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D68" t="str">
+        <f>SUBSTITUTE(A68, "mS/cm", "")</f>
+        <v xml:space="preserve">4.994 </v>
+      </c>
+      <c r="E68">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>4681</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D69" t="str">
+        <f>SUBSTITUTE(A69, "mS/cm", "")</f>
+        <v xml:space="preserve">4.980 </v>
+      </c>
+      <c r="E69">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>4680</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D70" t="str">
+        <f>SUBSTITUTE(A70, "mS/cm", "")</f>
+        <v xml:space="preserve">4.970 </v>
+      </c>
+      <c r="E70">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>4679</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D71" t="str">
+        <f>SUBSTITUTE(A71, "mS/cm", "")</f>
+        <v xml:space="preserve">4.955 </v>
+      </c>
+      <c r="E71">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>4678</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D72" t="str">
+        <f>SUBSTITUTE(A72, "mS/cm", "")</f>
+        <v xml:space="preserve">4.941 </v>
+      </c>
+      <c r="E72">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>4676</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>4677</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D73" t="str">
+        <f>SUBSTITUTE(A73, "mS/cm", "")</f>
+        <v xml:space="preserve">4.931 </v>
+      </c>
+      <c r="E73">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>4674</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>4675</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D74" t="str">
+        <f>SUBSTITUTE(A74, "mS/cm", "")</f>
+        <v xml:space="preserve">4.906 </v>
+      </c>
+      <c r="E74">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>4672</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>4673</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D75" t="str">
+        <f>SUBSTITUTE(A75, "mS/cm", "")</f>
+        <v xml:space="preserve">4.896 </v>
+      </c>
+      <c r="E75">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>4670</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>4671</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D76" t="str">
+        <f>SUBSTITUTE(A76, "mS/cm", "")</f>
+        <v xml:space="preserve">4.881 </v>
+      </c>
+      <c r="E76">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>4668</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>4669</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D77" t="str">
+        <f>SUBSTITUTE(A77, "mS/cm", "")</f>
+        <v xml:space="preserve">4.867 </v>
+      </c>
+      <c r="E77">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>4667</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D78" t="str">
+        <f>SUBSTITUTE(A78, "mS/cm", "")</f>
+        <v xml:space="preserve">4.857 </v>
+      </c>
+      <c r="E78">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>4665</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>4666</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D79" t="str">
+        <f>SUBSTITUTE(A79, "mS/cm", "")</f>
+        <v xml:space="preserve">4.847 </v>
+      </c>
+      <c r="E79">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>4663</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>4664</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D80" t="str">
+        <f>SUBSTITUTE(A80, "mS/cm", "")</f>
+        <v xml:space="preserve">4.832 </v>
+      </c>
+      <c r="E80">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>4661</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>4662</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D81" t="str">
+        <f>SUBSTITUTE(A81, "mS/cm", "")</f>
+        <v xml:space="preserve">4.817 </v>
+      </c>
+      <c r="E81">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>4660</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D82" t="str">
+        <f>SUBSTITUTE(A82, "mS/cm", "")</f>
+        <v xml:space="preserve">4.805 </v>
+      </c>
+      <c r="E82">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>4659</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D83" t="str">
+        <f>SUBSTITUTE(A83, "mS/cm", "")</f>
+        <v xml:space="preserve">4.795 </v>
+      </c>
+      <c r="E83">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>4657</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>4658</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D84" t="str">
+        <f>SUBSTITUTE(A84, "mS/cm", "")</f>
+        <v xml:space="preserve">4.783 </v>
+      </c>
+      <c r="E84">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>4655</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>4656</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D85" t="str">
+        <f>SUBSTITUTE(A85, "mS/cm", "")</f>
+        <v xml:space="preserve">4.772 </v>
+      </c>
+      <c r="E85">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>4654</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D86" t="str">
+        <f>SUBSTITUTE(A86, "mS/cm", "")</f>
+        <v xml:space="preserve">4.760 </v>
+      </c>
+      <c r="E86">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>4652</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>4653</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D87" t="str">
+        <f>SUBSTITUTE(A87, "mS/cm", "")</f>
+        <v xml:space="preserve">4.745 </v>
+      </c>
+      <c r="E87">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>4650</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>4651</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D88" t="str">
+        <f>SUBSTITUTE(A88, "mS/cm", "")</f>
+        <v xml:space="preserve">4.733 </v>
+      </c>
+      <c r="E88">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>4648</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>4649</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D89" t="str">
+        <f>SUBSTITUTE(A89, "mS/cm", "")</f>
+        <v xml:space="preserve">4.723 </v>
+      </c>
+      <c r="E89">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>4647</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D90" t="str">
+        <f>SUBSTITUTE(A90, "mS/cm", "")</f>
+        <v xml:space="preserve">4.714 </v>
+      </c>
+      <c r="E90">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>4646</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D91" t="str">
+        <f>SUBSTITUTE(A91, "mS/cm", "")</f>
+        <v xml:space="preserve">4.701 </v>
+      </c>
+      <c r="E91">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>4645</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D92" t="str">
+        <f>SUBSTITUTE(A92, "mS/cm", "")</f>
+        <v xml:space="preserve">4.691 </v>
+      </c>
+      <c r="E92">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>4644</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D93" t="str">
+        <f>SUBSTITUTE(A93, "mS/cm", "")</f>
+        <v xml:space="preserve">4.687 </v>
+      </c>
+      <c r="E93">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>4642</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>4643</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D94" t="str">
+        <f>SUBSTITUTE(A94, "mS/cm", "")</f>
+        <v xml:space="preserve">4.673 </v>
+      </c>
+      <c r="E94">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>4641</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D95" t="str">
+        <f>SUBSTITUTE(A95, "mS/cm", "")</f>
+        <v xml:space="preserve">4.663 </v>
+      </c>
+      <c r="E95">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>4640</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D96" t="str">
+        <f>SUBSTITUTE(A96, "mS/cm", "")</f>
+        <v xml:space="preserve">4.652 </v>
+      </c>
+      <c r="E96">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>4639</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D97" t="str">
+        <f>SUBSTITUTE(A97, "mS/cm", "")</f>
+        <v xml:space="preserve">4.641 </v>
+      </c>
+      <c r="E97">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>4637</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>4638</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D98" t="str">
+        <f>SUBSTITUTE(A98, "mS/cm", "")</f>
+        <v xml:space="preserve">4.632 </v>
+      </c>
+      <c r="E98">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>4636</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D99" t="str">
+        <f>SUBSTITUTE(A99, "mS/cm", "")</f>
+        <v xml:space="preserve">4.620 </v>
+      </c>
+      <c r="E99">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>4635</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D100" t="str">
+        <f>SUBSTITUTE(A100, "mS/cm", "")</f>
+        <v xml:space="preserve">4.616 </v>
+      </c>
+      <c r="E100">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>4633</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>4634</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D101" t="str">
+        <f>SUBSTITUTE(A101, "mS/cm", "")</f>
+        <v xml:space="preserve">4.614 </v>
+      </c>
+      <c r="E101">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>4631</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>4632</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D102" t="str">
+        <f>SUBSTITUTE(A102, "mS/cm", "")</f>
+        <v xml:space="preserve">4.597 </v>
+      </c>
+      <c r="E102">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>4629</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>4630</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D103" t="str">
+        <f>SUBSTITUTE(A103, "mS/cm", "")</f>
+        <v xml:space="preserve">4.593 </v>
+      </c>
+      <c r="E103">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>4628</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D104" t="str">
+        <f>SUBSTITUTE(A104, "mS/cm", "")</f>
+        <v xml:space="preserve">4.582 </v>
+      </c>
+      <c r="E104">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>4626</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>4627</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D105" t="str">
+        <f>SUBSTITUTE(A105, "mS/cm", "")</f>
+        <v xml:space="preserve">4.572 </v>
+      </c>
+      <c r="E105">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>4625</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D106" t="str">
+        <f>SUBSTITUTE(A106, "mS/cm", "")</f>
+        <v xml:space="preserve">4.580 </v>
+      </c>
+      <c r="E106">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>4624</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D107" t="str">
+        <f>SUBSTITUTE(A107, "mS/cm", "")</f>
+        <v xml:space="preserve">4.568 </v>
+      </c>
+      <c r="E107">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>4623</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D108" t="str">
+        <f>SUBSTITUTE(A108, "mS/cm", "")</f>
+        <v xml:space="preserve">4.561 </v>
+      </c>
+      <c r="E108">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>4622</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D109" t="str">
+        <f>SUBSTITUTE(A109, "mS/cm", "")</f>
+        <v xml:space="preserve">4.551 </v>
+      </c>
+      <c r="E109">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>4621</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D110" t="str">
+        <f>SUBSTITUTE(A110, "mS/cm", "")</f>
+        <v xml:space="preserve">4.541 </v>
+      </c>
+      <c r="E110">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>4620</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D111" t="str">
+        <f>SUBSTITUTE(A111, "mS/cm", "")</f>
+        <v xml:space="preserve">4.538 </v>
+      </c>
+      <c r="E111">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>4618</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>4619</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D112" t="str">
+        <f>SUBSTITUTE(A112, "mS/cm", "")</f>
+        <v xml:space="preserve">4.528 </v>
+      </c>
+      <c r="E112">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>4617</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D113" t="str">
+        <f>SUBSTITUTE(A113, "mS/cm", "")</f>
+        <v xml:space="preserve">4.525 </v>
+      </c>
+      <c r="E113">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>4615</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>4616</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D114" t="str">
+        <f>SUBSTITUTE(A114, "mS/cm", "")</f>
+        <v xml:space="preserve">4.521 </v>
+      </c>
+      <c r="E114">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>4614</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D115" t="str">
+        <f>SUBSTITUTE(A115, "mS/cm", "")</f>
+        <v xml:space="preserve">4.506 </v>
+      </c>
+      <c r="E115">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>4613</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D116" t="str">
+        <f>SUBSTITUTE(A116, "mS/cm", "")</f>
+        <v xml:space="preserve">4.502 </v>
+      </c>
+      <c r="E116">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>4612</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D117" t="str">
+        <f>SUBSTITUTE(A117, "mS/cm", "")</f>
+        <v xml:space="preserve">4.499 </v>
+      </c>
+      <c r="E117">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>4611</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D118" t="str">
+        <f>SUBSTITUTE(A118, "mS/cm", "")</f>
+        <v xml:space="preserve">4.493 </v>
+      </c>
+      <c r="E118">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>4610</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D119" t="str">
+        <f>SUBSTITUTE(A119, "mS/cm", "")</f>
+        <v xml:space="preserve">4.486 </v>
+      </c>
+      <c r="E119">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>4609</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D120" t="str">
+        <f>SUBSTITUTE(A120, "mS/cm", "")</f>
+        <v xml:space="preserve">4.480 </v>
+      </c>
+      <c r="E120">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>4608</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D121" t="str">
+        <f>SUBSTITUTE(A121, "mS/cm", "")</f>
+        <v xml:space="preserve">4.471 </v>
+      </c>
+      <c r="E121">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>4607</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D122" t="str">
+        <f>SUBSTITUTE(A122, "mS/cm", "")</f>
+        <v xml:space="preserve">4.468 </v>
+      </c>
+      <c r="E122">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>4606</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D123" t="str">
+        <f>SUBSTITUTE(A123, "mS/cm", "")</f>
+        <v xml:space="preserve">4.454 </v>
+      </c>
+      <c r="E123">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>4605</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D124" t="str">
+        <f>SUBSTITUTE(A124, "mS/cm", "")</f>
+        <v xml:space="preserve">4.454 </v>
+      </c>
+      <c r="E124">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>4603</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>4604</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D125" t="str">
+        <f>SUBSTITUTE(A125, "mS/cm", "")</f>
+        <v xml:space="preserve">4.447 </v>
+      </c>
+      <c r="E125">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>4601</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>4602</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D126" t="str">
+        <f>SUBSTITUTE(A126, "mS/cm", "")</f>
+        <v xml:space="preserve">4.439 </v>
+      </c>
+      <c r="E126">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>4598</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>4600</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D127" t="str">
+        <f>SUBSTITUTE(A127, "mS/cm", "")</f>
+        <v xml:space="preserve">4.434 </v>
+      </c>
+      <c r="E127">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>4598</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>4599</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D128" t="str">
+        <f>SUBSTITUTE(A128, "mS/cm", "")</f>
+        <v xml:space="preserve">4.434 </v>
+      </c>
+      <c r="E128">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>4596</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>4597</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D129" t="str">
+        <f>SUBSTITUTE(A129, "mS/cm", "")</f>
+        <v xml:space="preserve">4.430 </v>
+      </c>
+      <c r="E129">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>4594</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>4595</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D130" t="str">
+        <f>SUBSTITUTE(A130, "mS/cm", "")</f>
+        <v xml:space="preserve">4.425 </v>
+      </c>
+      <c r="E130">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>4592</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>4593</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D131" t="str">
+        <f>SUBSTITUTE(A131, "mS/cm", "")</f>
+        <v xml:space="preserve">4.417 </v>
+      </c>
+      <c r="E131">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>4590</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>4591</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D132" t="str">
+        <f>SUBSTITUTE(A132, "mS/cm", "")</f>
+        <v xml:space="preserve">4.410 </v>
+      </c>
+      <c r="E132">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>4588</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>4589</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D133" t="str">
+        <f>SUBSTITUTE(A133, "mS/cm", "")</f>
+        <v xml:space="preserve">4.405 </v>
+      </c>
+      <c r="E133">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>4586</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>4587</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D134" t="str">
+        <f>SUBSTITUTE(A134, "mS/cm", "")</f>
+        <v xml:space="preserve">4.397 </v>
+      </c>
+      <c r="E134">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>4584</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>4585</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D135" t="str">
+        <f>SUBSTITUTE(A135, "mS/cm", "")</f>
+        <v xml:space="preserve">4.394 </v>
+      </c>
+      <c r="E135">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>4582</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>4583</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D136" t="str">
+        <f>SUBSTITUTE(A136, "mS/cm", "")</f>
+        <v xml:space="preserve">4.388 </v>
+      </c>
+      <c r="E136">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>4580</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>4581</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D137" t="str">
+        <f>SUBSTITUTE(A137, "mS/cm", "")</f>
+        <v xml:space="preserve">4.383 </v>
+      </c>
+      <c r="E137">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>4578</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>4579</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D138" t="str">
+        <f>SUBSTITUTE(A138, "mS/cm", "")</f>
+        <v xml:space="preserve">4.381 </v>
+      </c>
+      <c r="E138">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>4576</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>4577</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D139" t="str">
+        <f>SUBSTITUTE(A139, "mS/cm", "")</f>
+        <v xml:space="preserve">4.376 </v>
+      </c>
+      <c r="E139">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>4574</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>4575</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D140" t="str">
+        <f>SUBSTITUTE(A140, "mS/cm", "")</f>
+        <v xml:space="preserve">4.371 </v>
+      </c>
+      <c r="E140">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>4572</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>4573</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D141" t="str">
+        <f>SUBSTITUTE(A141, "mS/cm", "")</f>
+        <v xml:space="preserve">4.368 </v>
+      </c>
+      <c r="E141">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>4570</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D142" t="str">
+        <f>SUBSTITUTE(A142, "mS/cm", "")</f>
+        <v xml:space="preserve">4.363 </v>
+      </c>
+      <c r="E142">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>4568</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>4569</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D143" t="str">
+        <f>SUBSTITUTE(A143, "mS/cm", "")</f>
+        <v xml:space="preserve">4.360 </v>
+      </c>
+      <c r="E143">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>4566</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>4567</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D144" t="str">
+        <f>SUBSTITUTE(A144, "mS/cm", "")</f>
+        <v xml:space="preserve">4.354 </v>
+      </c>
+      <c r="E144">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
+        <v>4564</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>4565</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D145" t="str">
+        <f>SUBSTITUTE(A145, "mS/cm", "")</f>
+        <v xml:space="preserve">4.348 </v>
+      </c>
+      <c r="E145">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>4562</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>4563</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D146" t="str">
+        <f>SUBSTITUTE(A146, "mS/cm", "")</f>
+        <v xml:space="preserve">4.345 </v>
+      </c>
+      <c r="E146">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
+        <v>4560</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>4561</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D147" t="str">
+        <f>SUBSTITUTE(A147, "mS/cm", "")</f>
+        <v xml:space="preserve">4.340 </v>
+      </c>
+      <c r="E147">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>4558</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>4559</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D148" t="str">
+        <f>SUBSTITUTE(A148, "mS/cm", "")</f>
+        <v xml:space="preserve">4.336 </v>
+      </c>
+      <c r="E148">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>4556</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>4557</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D149" t="str">
+        <f>SUBSTITUTE(A149, "mS/cm", "")</f>
+        <v xml:space="preserve">4.333 </v>
+      </c>
+      <c r="E149">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
+        <v>4554</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>4555</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D150" t="str">
+        <f>SUBSTITUTE(A150, "mS/cm", "")</f>
+        <v xml:space="preserve">4.329 </v>
+      </c>
+      <c r="E150">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>4551</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>4553</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D151" t="str">
+        <f>SUBSTITUTE(A151, "mS/cm", "")</f>
+        <v xml:space="preserve">4.321 </v>
+      </c>
+      <c r="E151">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
+        <v>4551</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>4552</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D152" t="str">
+        <f>SUBSTITUTE(A152, "mS/cm", "")</f>
+        <v xml:space="preserve">4.321 </v>
+      </c>
+      <c r="E152">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>4550</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D153" t="str">
+        <f>SUBSTITUTE(A153, "mS/cm", "")</f>
+        <v xml:space="preserve">4.313 </v>
+      </c>
+      <c r="E153">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
+        <v>4547</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>4548</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D154" t="str">
+        <f>SUBSTITUTE(A154, "mS/cm", "")</f>
+        <v xml:space="preserve">4.311 </v>
+      </c>
+      <c r="E154">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
+        <v>4545</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>4546</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D155" t="str">
+        <f>SUBSTITUTE(A155, "mS/cm", "")</f>
+        <v xml:space="preserve">4.306 </v>
+      </c>
+      <c r="E155">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>4544</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D156" t="str">
+        <f>SUBSTITUTE(A156, "mS/cm", "")</f>
+        <v xml:space="preserve">4.304 </v>
+      </c>
+      <c r="E156">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
+        <v>4541</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>4542</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D157" t="str">
+        <f>SUBSTITUTE(A157, "mS/cm", "")</f>
+        <v xml:space="preserve">4.299 </v>
+      </c>
+      <c r="E157">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="s">
+        <v>4539</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>4540</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D158" t="str">
+        <f>SUBSTITUTE(A158, "mS/cm", "")</f>
+        <v xml:space="preserve">4.297 </v>
+      </c>
+      <c r="E158">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
+        <v>4537</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>4538</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D159" t="str">
+        <f>SUBSTITUTE(A159, "mS/cm", "")</f>
+        <v xml:space="preserve">4.295 </v>
+      </c>
+      <c r="E159">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>4535</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>4536</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D160" t="str">
+        <f>SUBSTITUTE(A160, "mS/cm", "")</f>
+        <v xml:space="preserve">4.290 </v>
+      </c>
+      <c r="E160">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>4533</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>4534</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D161" t="str">
+        <f>SUBSTITUTE(A161, "mS/cm", "")</f>
+        <v xml:space="preserve">4.287 </v>
+      </c>
+      <c r="E161">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
+        <v>4531</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>4532</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D162" t="str">
+        <f>SUBSTITUTE(A162, "mS/cm", "")</f>
+        <v xml:space="preserve">4.283 </v>
+      </c>
+      <c r="E162">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A163" s="8" t="s">
+        <v>4529</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>4530</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D163" t="str">
+        <f>SUBSTITUTE(A163, "mS/cm", "")</f>
+        <v xml:space="preserve">4.280 </v>
+      </c>
+      <c r="E163">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>4527</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>4528</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D164" t="str">
+        <f>SUBSTITUTE(A164, "mS/cm", "")</f>
+        <v xml:space="preserve">4.276 </v>
+      </c>
+      <c r="E164">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
+        <v>4525</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>4526</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D165" t="str">
+        <f>SUBSTITUTE(A165, "mS/cm", "")</f>
+        <v xml:space="preserve">4.272 </v>
+      </c>
+      <c r="E165">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
+        <v>4523</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>4524</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D166" t="str">
+        <f>SUBSTITUTE(A166, "mS/cm", "")</f>
+        <v xml:space="preserve">4.269 </v>
+      </c>
+      <c r="E166">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
+        <v>4521</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>4522</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D167" t="str">
+        <f>SUBSTITUTE(A167, "mS/cm", "")</f>
+        <v xml:space="preserve">4.266 </v>
+      </c>
+      <c r="E167">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
+        <v>4519</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>4520</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D168" t="str">
+        <f>SUBSTITUTE(A168, "mS/cm", "")</f>
+        <v xml:space="preserve">4.265 </v>
+      </c>
+      <c r="E168">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A169" s="8" t="s">
+        <v>4517</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>4518</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D169" t="str">
+        <f>SUBSTITUTE(A169, "mS/cm", "")</f>
+        <v xml:space="preserve">4.260 </v>
+      </c>
+      <c r="E169">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A170" s="8" t="s">
+        <v>4515</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>4516</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D170" t="str">
+        <f>SUBSTITUTE(A170, "mS/cm", "")</f>
+        <v xml:space="preserve">4.257 </v>
+      </c>
+      <c r="E170">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A171" s="8" t="s">
+        <v>4513</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D171" t="str">
+        <f>SUBSTITUTE(A171, "mS/cm", "")</f>
+        <v xml:space="preserve">4.253 </v>
+      </c>
+      <c r="E171">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A172" s="8" t="s">
+        <v>4511</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>4512</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D172" t="str">
+        <f>SUBSTITUTE(A172, "mS/cm", "")</f>
+        <v xml:space="preserve">4.249 </v>
+      </c>
+      <c r="E172">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A173" s="8" t="s">
+        <v>4508</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>4510</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D173" t="str">
+        <f>SUBSTITUTE(A173, "mS/cm", "")</f>
+        <v xml:space="preserve">4.245 </v>
+      </c>
+      <c r="E173">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A174" s="8" t="s">
+        <v>4508</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>4509</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D174" t="str">
+        <f>SUBSTITUTE(A174, "mS/cm", "")</f>
+        <v xml:space="preserve">4.245 </v>
+      </c>
+      <c r="E174">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A175" s="8" t="s">
+        <v>4506</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>4507</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D175" t="str">
+        <f>SUBSTITUTE(A175, "mS/cm", "")</f>
+        <v xml:space="preserve">4.243 </v>
+      </c>
+      <c r="E175">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A176" s="8" t="s">
+        <v>4504</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>4505</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D176" t="str">
+        <f>SUBSTITUTE(A176, "mS/cm", "")</f>
+        <v xml:space="preserve">4.239 </v>
+      </c>
+      <c r="E176">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A177" s="8" t="s">
+        <v>4502</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>4503</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D177" t="str">
+        <f>SUBSTITUTE(A177, "mS/cm", "")</f>
+        <v xml:space="preserve">4.237 </v>
+      </c>
+      <c r="E177">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A178" s="8" t="s">
+        <v>4500</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>4501</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D178" t="str">
+        <f>SUBSTITUTE(A178, "mS/cm", "")</f>
+        <v xml:space="preserve">4.234 </v>
+      </c>
+      <c r="E178">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A179" s="8" t="s">
+        <v>4498</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>4499</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D179" t="str">
+        <f>SUBSTITUTE(A179, "mS/cm", "")</f>
+        <v xml:space="preserve">4.232 </v>
+      </c>
+      <c r="E179">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A180" s="8" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>4497</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D180" t="str">
+        <f>SUBSTITUTE(A180, "mS/cm", "")</f>
+        <v xml:space="preserve">4.228 </v>
+      </c>
+      <c r="E180">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A181" s="8" t="s">
+        <v>4494</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>4495</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D181" t="str">
+        <f>SUBSTITUTE(A181, "mS/cm", "")</f>
+        <v xml:space="preserve">4.224 </v>
+      </c>
+      <c r="E181">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A182" s="8" t="s">
+        <v>4492</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>4493</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D182" t="str">
+        <f>SUBSTITUTE(A182, "mS/cm", "")</f>
+        <v xml:space="preserve">4.222 </v>
+      </c>
+      <c r="E182">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A183" s="8" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>4491</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D183" t="str">
+        <f>SUBSTITUTE(A183, "mS/cm", "")</f>
+        <v xml:space="preserve">4.218 </v>
+      </c>
+      <c r="E183">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A184" s="8" t="s">
+        <v>4488</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>4489</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D184" t="str">
+        <f>SUBSTITUTE(A184, "mS/cm", "")</f>
+        <v xml:space="preserve">4.216 </v>
+      </c>
+      <c r="E184">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A185" s="8" t="s">
+        <v>4486</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>4487</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D185" t="str">
+        <f>SUBSTITUTE(A185, "mS/cm", "")</f>
+        <v xml:space="preserve">4.213 </v>
+      </c>
+      <c r="E185">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A186" s="8" t="s">
+        <v>4484</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>4485</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D186" t="str">
+        <f>SUBSTITUTE(A186, "mS/cm", "")</f>
+        <v xml:space="preserve">4.212 </v>
+      </c>
+      <c r="E186">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A187" s="8" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>4483</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D187" t="str">
+        <f>SUBSTITUTE(A187, "mS/cm", "")</f>
+        <v xml:space="preserve">4.208 </v>
+      </c>
+      <c r="E187">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A188" s="8" t="s">
+        <v>4480</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>4481</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D188" t="str">
+        <f>SUBSTITUTE(A188, "mS/cm", "")</f>
+        <v xml:space="preserve">4.207 </v>
+      </c>
+      <c r="E188">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>4479</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D189" t="str">
+        <f>SUBSTITUTE(A189, "mS/cm", "")</f>
+        <v xml:space="preserve">4.204 </v>
+      </c>
+      <c r="E189">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A190" s="8" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>4477</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D190" t="str">
+        <f>SUBSTITUTE(A190, "mS/cm", "")</f>
+        <v xml:space="preserve">4.202 </v>
+      </c>
+      <c r="E190">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A191" s="8" t="s">
+        <v>4474</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>4475</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D191" t="str">
+        <f>SUBSTITUTE(A191, "mS/cm", "")</f>
+        <v xml:space="preserve">4.198 </v>
+      </c>
+      <c r="E191">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A192" s="8" t="s">
+        <v>4472</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D192" t="str">
+        <f>SUBSTITUTE(A192, "mS/cm", "")</f>
+        <v xml:space="preserve">4.195 </v>
+      </c>
+      <c r="E192">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A193" s="8" t="s">
+        <v>4470</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>4471</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D193" t="str">
+        <f>SUBSTITUTE(A193, "mS/cm", "")</f>
+        <v xml:space="preserve">4.193 </v>
+      </c>
+      <c r="E193">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A194" s="8" t="s">
+        <v>4468</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>4469</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D194" t="str">
+        <f>SUBSTITUTE(A194, "mS/cm", "")</f>
+        <v xml:space="preserve">4.189 </v>
+      </c>
+      <c r="E194">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A195" s="8" t="s">
+        <v>4466</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>4467</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D195" t="str">
+        <f>SUBSTITUTE(A195, "mS/cm", "")</f>
+        <v xml:space="preserve">4.187 </v>
+      </c>
+      <c r="E195">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A196" s="8" t="s">
+        <v>4464</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>4465</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D196" t="str">
+        <f>SUBSTITUTE(A196, "mS/cm", "")</f>
+        <v xml:space="preserve">4.185 </v>
+      </c>
+      <c r="E196">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A197" s="8" t="s">
+        <v>4462</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>4463</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D197" t="str">
+        <f>SUBSTITUTE(A197, "mS/cm", "")</f>
+        <v xml:space="preserve">4.183 </v>
+      </c>
+      <c r="E197">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A198" s="8" t="s">
+        <v>4460</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>4461</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D198" t="str">
+        <f>SUBSTITUTE(A198, "mS/cm", "")</f>
+        <v xml:space="preserve">4.182 </v>
+      </c>
+      <c r="E198">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A199" s="8" t="s">
+        <v>4458</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>4459</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D199" t="str">
+        <f>SUBSTITUTE(A199, "mS/cm", "")</f>
+        <v xml:space="preserve">4.179 </v>
+      </c>
+      <c r="E199">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A200" s="8" t="s">
+        <v>4456</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>4457</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D200" t="str">
+        <f>SUBSTITUTE(A200, "mS/cm", "")</f>
+        <v xml:space="preserve">4.176 </v>
+      </c>
+      <c r="E200">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A201" s="8" t="s">
+        <v>4454</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>4455</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D201" t="str">
+        <f>SUBSTITUTE(A201, "mS/cm", "")</f>
+        <v xml:space="preserve">4.174 </v>
+      </c>
+      <c r="E201">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A202" s="8" t="s">
+        <v>4451</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>4453</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D202" t="str">
+        <f>SUBSTITUTE(A202, "mS/cm", "")</f>
+        <v xml:space="preserve">4.170 </v>
+      </c>
+      <c r="E202">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A203" s="8" t="s">
+        <v>4451</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>4452</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D203" t="str">
+        <f>SUBSTITUTE(A203, "mS/cm", "")</f>
+        <v xml:space="preserve">4.170 </v>
+      </c>
+      <c r="E203">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A204" s="8" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>4450</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D204" t="str">
+        <f>SUBSTITUTE(A204, "mS/cm", "")</f>
+        <v xml:space="preserve">4.169 </v>
+      </c>
+      <c r="E204">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A205" s="8" t="s">
+        <v>4447</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>4448</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D205" t="str">
+        <f>SUBSTITUTE(A205, "mS/cm", "")</f>
+        <v xml:space="preserve">4.164 </v>
+      </c>
+      <c r="E205">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A206" s="8" t="s">
+        <v>4445</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>4446</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D206" t="str">
+        <f>SUBSTITUTE(A206, "mS/cm", "")</f>
+        <v xml:space="preserve">4.163 </v>
+      </c>
+      <c r="E206">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A207" s="8" t="s">
+        <v>4443</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>4444</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D207" t="str">
+        <f>SUBSTITUTE(A207, "mS/cm", "")</f>
+        <v xml:space="preserve">4.160 </v>
+      </c>
+      <c r="E207">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A208" s="8" t="s">
+        <v>4441</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>4442</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D208" t="str">
+        <f>SUBSTITUTE(A208, "mS/cm", "")</f>
+        <v xml:space="preserve">4.158 </v>
+      </c>
+      <c r="E208">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A209" s="8" t="s">
+        <v>4439</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>4440</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D209" t="str">
+        <f>SUBSTITUTE(A209, "mS/cm", "")</f>
+        <v xml:space="preserve">4.155 </v>
+      </c>
+      <c r="E209">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A210" s="8" t="s">
+        <v>4437</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>4438</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D210" t="str">
+        <f>SUBSTITUTE(A210, "mS/cm", "")</f>
+        <v xml:space="preserve">4.153 </v>
+      </c>
+      <c r="E210">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A211" s="8" t="s">
+        <v>4435</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>4436</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D211" t="str">
+        <f>SUBSTITUTE(A211, "mS/cm", "")</f>
+        <v xml:space="preserve">4.152 </v>
+      </c>
+      <c r="E211">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A212" s="8" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>4434</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D212" t="str">
+        <f>SUBSTITUTE(A212, "mS/cm", "")</f>
+        <v xml:space="preserve">4.150 </v>
+      </c>
+      <c r="E212">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A213" s="8" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D213" t="str">
+        <f>SUBSTITUTE(A213, "mS/cm", "")</f>
+        <v xml:space="preserve">4.147 </v>
+      </c>
+      <c r="E213">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A214" s="8" t="s">
+        <v>4429</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>4430</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D214" t="str">
+        <f>SUBSTITUTE(A214, "mS/cm", "")</f>
+        <v xml:space="preserve">4.144 </v>
+      </c>
+      <c r="E214">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A215" s="8" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>4428</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D215" t="str">
+        <f>SUBSTITUTE(A215, "mS/cm", "")</f>
+        <v xml:space="preserve">4.142 </v>
+      </c>
+      <c r="E215">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A216" s="8" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>4427</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D216" t="str">
+        <f>SUBSTITUTE(A216, "mS/cm", "")</f>
+        <v xml:space="preserve">4.142 </v>
+      </c>
+      <c r="E216">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A217" s="8" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>4425</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D217" t="str">
+        <f>SUBSTITUTE(A217, "mS/cm", "")</f>
+        <v xml:space="preserve">4.140 </v>
+      </c>
+      <c r="E217">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A218" s="8" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>4423</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D218" t="str">
+        <f>SUBSTITUTE(A218, "mS/cm", "")</f>
+        <v xml:space="preserve">4.139 </v>
+      </c>
+      <c r="E218">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A219" s="8" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D219" t="str">
+        <f>SUBSTITUTE(A219, "mS/cm", "")</f>
+        <v xml:space="preserve">4.137 </v>
+      </c>
+      <c r="E219">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A220" s="8" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>4419</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D220" t="str">
+        <f>SUBSTITUTE(A220, "mS/cm", "")</f>
+        <v xml:space="preserve">4.135 </v>
+      </c>
+      <c r="E220">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A221" s="8" t="s">
+        <v>4416</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>4417</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D221" t="str">
+        <f>SUBSTITUTE(A221, "mS/cm", "")</f>
+        <v xml:space="preserve">4.133 </v>
+      </c>
+      <c r="E221">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A222" s="8" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>4415</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D222" t="str">
+        <f>SUBSTITUTE(A222, "mS/cm", "")</f>
+        <v xml:space="preserve">4.130 </v>
+      </c>
+      <c r="E222">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A223" s="8" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>4413</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D223" t="str">
+        <f>SUBSTITUTE(A223, "mS/cm", "")</f>
+        <v xml:space="preserve">4.129 </v>
+      </c>
+      <c r="E223">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A224" s="8" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>4411</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D224" t="str">
+        <f>SUBSTITUTE(A224, "mS/cm", "")</f>
+        <v xml:space="preserve">4.127 </v>
+      </c>
+      <c r="E224">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A225" s="8" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D225" t="str">
+        <f>SUBSTITUTE(A225, "mS/cm", "")</f>
+        <v xml:space="preserve">4.125 </v>
+      </c>
+      <c r="E225">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A226" s="8" t="s">
+        <v>4406</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>4407</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D226" t="str">
+        <f>SUBSTITUTE(A226, "mS/cm", "")</f>
+        <v xml:space="preserve">4.124 </v>
+      </c>
+      <c r="E226">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A227" s="8" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>4405</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D227" t="str">
+        <f>SUBSTITUTE(A227, "mS/cm", "")</f>
+        <v xml:space="preserve">4.123 </v>
+      </c>
+      <c r="E227">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A228" s="8" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>4403</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D228" t="str">
+        <f>SUBSTITUTE(A228, "mS/cm", "")</f>
+        <v xml:space="preserve">4.118 </v>
+      </c>
+      <c r="E228">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A229" s="8" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>4401</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D229" t="str">
+        <f>SUBSTITUTE(A229, "mS/cm", "")</f>
+        <v xml:space="preserve">4.117 </v>
+      </c>
+      <c r="E229">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A230" s="8" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>4400</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D230" t="str">
+        <f>SUBSTITUTE(A230, "mS/cm", "")</f>
+        <v xml:space="preserve">4.117 </v>
+      </c>
+      <c r="E230">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A231" s="8" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>4398</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D231" t="str">
+        <f>SUBSTITUTE(A231, "mS/cm", "")</f>
+        <v xml:space="preserve">4.113 </v>
+      </c>
+      <c r="E231">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A232" s="8" t="s">
+        <v>4395</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>4396</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D232" t="str">
+        <f>SUBSTITUTE(A232, "mS/cm", "")</f>
+        <v xml:space="preserve">4.112 </v>
+      </c>
+      <c r="E232">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A233" s="8" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>4394</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D233" t="str">
+        <f>SUBSTITUTE(A233, "mS/cm", "")</f>
+        <v xml:space="preserve">4.109 </v>
+      </c>
+      <c r="E233">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A234" s="8" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>4392</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D234" t="str">
+        <f>SUBSTITUTE(A234, "mS/cm", "")</f>
+        <v xml:space="preserve">4.108 </v>
+      </c>
+      <c r="E234">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A235" s="8" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>4390</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D235" t="str">
+        <f>SUBSTITUTE(A235, "mS/cm", "")</f>
+        <v xml:space="preserve">4.106 </v>
+      </c>
+      <c r="E235">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A236" s="8" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>4388</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D236" t="str">
+        <f>SUBSTITUTE(A236, "mS/cm", "")</f>
+        <v xml:space="preserve">4.104 </v>
+      </c>
+      <c r="E236">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A237" s="8" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>4386</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D237" t="str">
+        <f>SUBSTITUTE(A237, "mS/cm", "")</f>
+        <v xml:space="preserve">4.103 </v>
+      </c>
+      <c r="E237">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A238" s="8" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>4385</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D238" t="str">
+        <f>SUBSTITUTE(A238, "mS/cm", "")</f>
+        <v xml:space="preserve">4.103 </v>
+      </c>
+      <c r="E238">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A239" s="8" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>4383</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D239" t="str">
+        <f>SUBSTITUTE(A239, "mS/cm", "")</f>
+        <v xml:space="preserve">4.100 </v>
+      </c>
+      <c r="E239">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A240" s="8" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>4382</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D240" t="str">
+        <f>SUBSTITUTE(A240, "mS/cm", "")</f>
+        <v xml:space="preserve">4.100 </v>
+      </c>
+      <c r="E240">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A241" s="8" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>4381</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D241" t="str">
+        <f>SUBSTITUTE(A241, "mS/cm", "")</f>
+        <v xml:space="preserve">4.098 </v>
+      </c>
+      <c r="E241">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A242" s="8" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>4379</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D242" t="str">
+        <f>SUBSTITUTE(A242, "mS/cm", "")</f>
+        <v xml:space="preserve">4.100 </v>
+      </c>
+      <c r="E242">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A243" s="8" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>4378</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D243" t="str">
+        <f>SUBSTITUTE(A243, "mS/cm", "")</f>
+        <v xml:space="preserve">4.100 </v>
+      </c>
+      <c r="E243">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A244" s="8" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>4376</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D244" t="str">
+        <f>SUBSTITUTE(A244, "mS/cm", "")</f>
+        <v xml:space="preserve">4.099 </v>
+      </c>
+      <c r="E244">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A245" s="8" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>4374</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D245" t="str">
+        <f>SUBSTITUTE(A245, "mS/cm", "")</f>
+        <v xml:space="preserve">4.097 </v>
+      </c>
+      <c r="E245">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A246" s="8" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>4372</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D246" t="str">
+        <f>SUBSTITUTE(A246, "mS/cm", "")</f>
+        <v xml:space="preserve">4.096 </v>
+      </c>
+      <c r="E246">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A247" s="8" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>4371</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D247" t="str">
+        <f>SUBSTITUTE(A247, "mS/cm", "")</f>
+        <v xml:space="preserve">4.096 </v>
+      </c>
+      <c r="E247">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A248" s="8" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>4369</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D248" t="str">
+        <f>SUBSTITUTE(A248, "mS/cm", "")</f>
+        <v xml:space="preserve">4.093 </v>
+      </c>
+      <c r="E248">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A249" s="8" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>4367</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D249" t="str">
+        <f>SUBSTITUTE(A249, "mS/cm", "")</f>
+        <v xml:space="preserve">4.090 </v>
+      </c>
+      <c r="E249">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A250" s="8" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>4365</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D250" t="str">
+        <f>SUBSTITUTE(A250, "mS/cm", "")</f>
+        <v xml:space="preserve">4.089 </v>
+      </c>
+      <c r="E250">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A251" s="8" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>4363</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D251" t="str">
+        <f>SUBSTITUTE(A251, "mS/cm", "")</f>
+        <v xml:space="preserve">4.088 </v>
+      </c>
+      <c r="E251">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A252" s="8" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D252" t="str">
+        <f>SUBSTITUTE(A252, "mS/cm", "")</f>
+        <v xml:space="preserve">4.088 </v>
+      </c>
+      <c r="E252">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A253" s="8" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>4360</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D253" t="str">
+        <f>SUBSTITUTE(A253, "mS/cm", "")</f>
+        <v xml:space="preserve">4.085 </v>
+      </c>
+      <c r="E253">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A254" s="8" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>4358</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D254" t="str">
+        <f>SUBSTITUTE(A254, "mS/cm", "")</f>
+        <v xml:space="preserve">4.084 </v>
+      </c>
+      <c r="E254">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A255" s="8" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>4356</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D255" t="str">
+        <f>SUBSTITUTE(A255, "mS/cm", "")</f>
+        <v xml:space="preserve">6.317 </v>
+      </c>
+      <c r="E255">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A256" s="8" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>4355</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D256" t="str">
+        <f>SUBSTITUTE(A256, "mS/cm", "")</f>
+        <v xml:space="preserve">6.392 </v>
+      </c>
+      <c r="E256">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A257" s="8" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>4353</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D257" t="str">
+        <f>SUBSTITUTE(A257, "mS/cm", "")</f>
+        <v xml:space="preserve">6.382 </v>
+      </c>
+      <c r="E257">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A258" s="8" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>4351</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D258" t="str">
+        <f>SUBSTITUTE(A258, "mS/cm", "")</f>
+        <v xml:space="preserve">6.381 </v>
+      </c>
+      <c r="E258">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A259" s="8" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>4349</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D259" t="str">
+        <f>SUBSTITUTE(A259, "mS/cm", "")</f>
+        <v xml:space="preserve">6.379 </v>
+      </c>
+      <c r="E259">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A260" s="8" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>4347</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D260" t="str">
+        <f>SUBSTITUTE(A260, "mS/cm", "")</f>
+        <v xml:space="preserve">6.378 </v>
+      </c>
+      <c r="E260">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A261" s="8" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>4346</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D261" t="str">
+        <f>SUBSTITUTE(A261, "mS/cm", "")</f>
+        <v xml:space="preserve">6.374 </v>
+      </c>
+      <c r="E261">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A262" s="8" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>4345</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D262" t="str">
+        <f>SUBSTITUTE(A262, "mS/cm", "")</f>
+        <v xml:space="preserve">6.374 </v>
+      </c>
+      <c r="E262">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A263" s="8" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>4343</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D263" t="str">
+        <f>SUBSTITUTE(A263, "mS/cm", "")</f>
+        <v xml:space="preserve">6.370 </v>
+      </c>
+      <c r="E263">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A264" s="8" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>4341</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D264" t="str">
+        <f>SUBSTITUTE(A264, "mS/cm", "")</f>
+        <v xml:space="preserve">6.368 </v>
+      </c>
+      <c r="E264">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A265" s="8" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>4340</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D265" t="str">
+        <f>SUBSTITUTE(A265, "mS/cm", "")</f>
+        <v xml:space="preserve">6.365 </v>
+      </c>
+      <c r="E265">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A266" s="8" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>4338</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D266" t="str">
+        <f>SUBSTITUTE(A266, "mS/cm", "")</f>
+        <v xml:space="preserve">6.366 </v>
+      </c>
+      <c r="E266">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A267" s="8" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>4336</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D267" t="str">
+        <f>SUBSTITUTE(A267, "mS/cm", "")</f>
+        <v xml:space="preserve">6.361 </v>
+      </c>
+      <c r="E267">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A268" s="8" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>4334</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D268" t="str">
+        <f>SUBSTITUTE(A268, "mS/cm", "")</f>
+        <v xml:space="preserve">6.359 </v>
+      </c>
+      <c r="E268">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A269" s="8" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>4332</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D269" t="str">
+        <f>SUBSTITUTE(A269, "mS/cm", "")</f>
+        <v xml:space="preserve">6.357 </v>
+      </c>
+      <c r="E269">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A270" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>4330</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D270" t="str">
+        <f>SUBSTITUTE(A270, "mS/cm", "")</f>
+        <v xml:space="preserve">6.358 </v>
+      </c>
+      <c r="E270">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A271" s="8" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>4329</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D271" t="str">
+        <f>SUBSTITUTE(A271, "mS/cm", "")</f>
+        <v xml:space="preserve">6.356 </v>
+      </c>
+      <c r="E271">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A272" s="8" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>4327</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D272" t="str">
+        <f>SUBSTITUTE(A272, "mS/cm", "")</f>
+        <v xml:space="preserve">6.354 </v>
+      </c>
+      <c r="E272">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A273" s="8" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>4326</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D273" t="str">
+        <f>SUBSTITUTE(A273, "mS/cm", "")</f>
+        <v>24.72 uS/cm</v>
+      </c>
+      <c r="E273">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A274" s="8" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>4323</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>4324</v>
+      </c>
+      <c r="D274" t="str">
+        <f>SUBSTITUTE(A274, "mS/cm", "")</f>
+        <v xml:space="preserve">17.26 </v>
+      </c>
+      <c r="E274">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A275" s="8" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>4321</v>
+      </c>
+      <c r="D275" t="str">
+        <f>SUBSTITUTE(A275, "mS/cm", "")</f>
+        <v>286.2 uS/cm</v>
+      </c>
+      <c r="E275">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D276" t="str">
+        <f>SUBSTITUTE(A276, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D277" t="str">
+        <f>SUBSTITUTE(A277, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D278" t="str">
+        <f>SUBSTITUTE(A278, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D279" t="str">
+        <f>SUBSTITUTE(A279, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D280" t="str">
+        <f>SUBSTITUTE(A280, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D281" t="str">
+        <f>SUBSTITUTE(A281, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D282" t="str">
+        <f>SUBSTITUTE(A282, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D283" t="str">
+        <f>SUBSTITUTE(A283, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D284" t="str">
+        <f>SUBSTITUTE(A284, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D285" t="str">
+        <f>SUBSTITUTE(A285, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D286" t="str">
+        <f>SUBSTITUTE(A286, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D287" t="str">
+        <f>SUBSTITUTE(A287, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D288" t="str">
+        <f>SUBSTITUTE(A288, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D289" t="str">
+        <f>SUBSTITUTE(A289, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D290" t="str">
+        <f>SUBSTITUTE(A290, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D291" t="str">
+        <f>SUBSTITUTE(A291, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D292" t="str">
+        <f>SUBSTITUTE(A292, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D293" t="str">
+        <f>SUBSTITUTE(A293, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D294" t="str">
+        <f>SUBSTITUTE(A294, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D295" t="str">
+        <f>SUBSTITUTE(A295, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D296" t="str">
+        <f>SUBSTITUTE(A296, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D297" t="str">
+        <f>SUBSTITUTE(A297, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D298" t="str">
+        <f>SUBSTITUTE(A298, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D299" t="str">
+        <f>SUBSTITUTE(A299, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D300" t="str">
+        <f>SUBSTITUTE(A300, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D301" t="str">
+        <f>SUBSTITUTE(A301, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D302" t="str">
+        <f>SUBSTITUTE(A302, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D303" t="str">
+        <f>SUBSTITUTE(A303, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D304" t="str">
+        <f>SUBSTITUTE(A304, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D305" t="str">
+        <f>SUBSTITUTE(A305, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D306" t="str">
+        <f>SUBSTITUTE(A306, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D307" t="str">
+        <f>SUBSTITUTE(A307, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D308" t="str">
+        <f>SUBSTITUTE(A308, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D309" t="str">
+        <f>SUBSTITUTE(A309, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D310" t="str">
+        <f>SUBSTITUTE(A310, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D311" t="str">
+        <f>SUBSTITUTE(A311, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D312" t="str">
+        <f>SUBSTITUTE(A312, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D313" t="str">
+        <f>SUBSTITUTE(A313, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D314" t="str">
+        <f>SUBSTITUTE(A314, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D315" t="str">
+        <f>SUBSTITUTE(A315, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D316" t="str">
+        <f>SUBSTITUTE(A316, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D317" t="str">
+        <f>SUBSTITUTE(A317, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D318" t="str">
+        <f>SUBSTITUTE(A318, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D319" t="str">
+        <f>SUBSTITUTE(A319, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E319">
+    <sortCondition ref="E2:E319"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24449,7 +31088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E387"/>
   <sheetViews>
@@ -28363,7 +35002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E387"/>
   <sheetViews>
@@ -68145,8 +74784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Excel Files/Experimental Data.xlsx
+++ b/Excel Files/Experimental Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Steady State 2-20" sheetId="1" state="hidden" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="24.4 Run 3" sheetId="12" r:id="rId8"/>
     <sheet name="37.5 DegC Steady State" sheetId="13" r:id="rId9"/>
     <sheet name="37.5 Run 2" sheetId="14" r:id="rId10"/>
-    <sheet name="25 C Steady State" sheetId="6" state="hidden" r:id="rId11"/>
-    <sheet name="Run 2 2-27" sheetId="7" state="hidden" r:id="rId12"/>
-    <sheet name="Run 3 2-7" sheetId="8" state="hidden" r:id="rId13"/>
+    <sheet name="37.5 Run 3" sheetId="15" r:id="rId11"/>
+    <sheet name="25 C Steady State" sheetId="6" state="hidden" r:id="rId12"/>
+    <sheet name="Run 2 2-27" sheetId="7" state="hidden" r:id="rId13"/>
+    <sheet name="Run 3 2-7" sheetId="8" state="hidden" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8796" uniqueCount="4788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9638" uniqueCount="5222">
   <si>
     <t>Temp degC</t>
   </si>
@@ -14400,6 +14401,1308 @@
   </si>
   <si>
     <t>1 Jun 2099 / 1:39:27 PM/Ch5</t>
+  </si>
+  <si>
+    <t>3.584 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:36:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.063 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:36:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.064 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:36:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.065 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:36:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.066 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:36:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.067 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:36:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.068 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:36:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.070 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:36:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.071 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:36:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.072 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:36:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.073 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:35:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.074 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:35:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.076 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:35:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.077 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:35:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.079 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:35:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.080 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:35:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.081 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:35:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.082 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:35:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:35:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:35:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.087 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:35:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:35:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:34:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:34:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.092 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:34:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:34:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.095 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:34:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:34:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:34:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:34:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.101 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:34:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.102 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:34:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:34:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.105 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:34:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.107 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:33:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:33:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:33:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.111 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:33:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:33:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.114 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:33:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.116 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:33:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:33:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.119 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:33:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.121 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:33:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.122 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:33:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:33:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.126 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:32:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:32:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:32:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.132 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:32:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.134 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:32:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:32:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.136 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:32:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.138 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:32:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:32:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:32:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:32:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.146 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:32:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.148 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:31:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:31:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.151 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:31:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:31:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.156 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:31:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:31:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:31:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.161 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:31:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:31:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.165 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:31:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.167 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:31:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:31:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.171 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:30:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:30:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:30:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.178 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:30:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.180 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:30:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:30:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:30:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:30:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.190 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:30:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.192 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:30:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:30:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.197 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:30:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.199 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:29:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:29:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:29:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:29:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.210 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:29:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:29:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:29:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.217 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:29:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.219 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:29:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:29:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:29:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.227 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:29:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.230 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:28:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:28:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.235 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:28:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.238 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:28:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.241 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:28:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:28:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.246 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:28:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:28:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.252 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:28:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.256 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:28:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.259 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:28:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.261 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:28:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.264 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:27:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.267 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:27:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.271 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:27:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.274 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:27:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.277 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:27:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:27:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.284 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:27:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.288 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:27:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.291 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:27:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.294 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:27:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.298 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:27:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.301 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:27:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:26:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.308 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:26:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:26:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.316 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:26:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.319 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:26:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.323 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:26:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.327 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:26:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.330 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:26:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.334 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:26:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.338 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:26:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.343 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:26:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.347 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:26:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.351 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:25:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.356 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:25:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:25:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:25:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:25:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.372 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:25:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:25:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:25:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.386 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:25:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.391 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:25:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.395 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:25:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.399 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:25:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:24:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:24:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.414 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:24:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.412 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:24:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:24:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.423 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:24:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.429 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:24:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:24:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:24:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:24:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:24:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:24:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:23:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:23:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:23:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:23:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:23:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:23:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:23:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:23:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:23:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:23:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:23:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.530 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:23:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:22:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.543 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:22:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:22:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.558 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:22:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:22:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:22:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:22:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.587 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:22:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.595 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:22:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:22:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:22:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:22:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:21:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:21:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:21:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:21:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:21:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.672 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:21:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.681 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:21:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:21:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:21:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.711 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:21:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:21:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:21:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.742 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:20:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:20:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.764 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:20:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:20:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:20:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:20:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.803 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:20:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.815 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:20:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.826 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:20:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:20:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.852 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:20:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:20:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:19:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:19:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:19:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.923 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:19:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.937 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:19:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.948 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:19:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:19:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:19:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>4.999 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:19:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.016 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:19:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:19:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.051 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:19:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.071 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:18:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:18:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:18:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:18:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:18:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:18:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:18:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:18:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.223 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:18:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:18:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.271 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:18:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:18:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:17:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:17:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:17:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:17:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:17:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:17:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:17:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:17:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.542 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:17:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.570 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:17:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:17:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:17:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.677 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:16:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:16:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:16:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.815 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:16:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.864 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:16:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:16:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:16:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>5.995 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:16:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.046 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:16:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:16:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.150 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:16:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.215 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:16:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.280 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:15:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.349 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:15:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.412 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:15:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.466 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:15:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.549 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:15:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.616 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:15:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.702 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:15:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.796 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:15:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.884 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:15:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>6.991 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:15:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>7.097 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:15:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>7.212 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:15:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>7.329 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:14:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>7.439 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:14:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>7.568 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:14:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>7.706 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:14:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>7.867 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:14:36 PM/Ch5</t>
+  </si>
+  <si>
+    <t>8.035 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:14:31 PM/Ch5</t>
+  </si>
+  <si>
+    <t>8.213 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:14:26 PM/Ch5</t>
+  </si>
+  <si>
+    <t>8.414 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:14:21 PM/Ch5</t>
+  </si>
+  <si>
+    <t>8.624 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:14:16 PM/Ch5</t>
+  </si>
+  <si>
+    <t>8.860 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:14:11 PM/Ch5</t>
+  </si>
+  <si>
+    <t>9.075 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:14:06 PM/Ch5</t>
+  </si>
+  <si>
+    <t>9.343 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:14:01 PM/Ch5</t>
+  </si>
+  <si>
+    <t>9.630 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:13:56 PM/Ch5</t>
+  </si>
+  <si>
+    <t>9.919 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:13:51 PM/Ch5</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:13:46 PM/Ch5</t>
+  </si>
+  <si>
+    <t>10.42 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:13:41 PM/Ch5</t>
+  </si>
+  <si>
+    <t>10.58 mS/cm</t>
+  </si>
+  <si>
+    <t>1 Jun 2099 / 2:13:36 PM/Ch5</t>
   </si>
 </sst>
 </file>
@@ -14774,11 +16077,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="437410936"/>
-        <c:axId val="437400352"/>
+        <c:axId val="520888592"/>
+        <c:axId val="520886240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="437410936"/>
+        <c:axId val="520888592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14835,12 +16138,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437400352"/>
+        <c:crossAx val="520886240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="437400352"/>
+        <c:axId val="520886240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14897,7 +16200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437410936"/>
+        <c:crossAx val="520888592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15264,11 +16567,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="437401528"/>
-        <c:axId val="437408192"/>
+        <c:axId val="520887808"/>
+        <c:axId val="520882320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="437401528"/>
+        <c:axId val="520887808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15325,12 +16628,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437408192"/>
+        <c:crossAx val="520882320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="437408192"/>
+        <c:axId val="520882320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15387,7 +16690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437401528"/>
+        <c:crossAx val="520887808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15744,11 +17047,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="437402312"/>
-        <c:axId val="437402704"/>
+        <c:axId val="520885848"/>
+        <c:axId val="520887024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="437402312"/>
+        <c:axId val="520885848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15805,12 +17108,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437402704"/>
+        <c:crossAx val="520887024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="437402704"/>
+        <c:axId val="520887024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15867,7 +17170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437402312"/>
+        <c:crossAx val="520885848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16224,11 +17527,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="437413680"/>
-        <c:axId val="437419168"/>
+        <c:axId val="520868992"/>
+        <c:axId val="520860760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="437413680"/>
+        <c:axId val="520868992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16285,12 +17588,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437419168"/>
+        <c:crossAx val="520860760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="437419168"/>
+        <c:axId val="520860760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16347,7 +17650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437413680"/>
+        <c:crossAx val="520868992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18640,7 +19943,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18984892-4E9D-8140-B05B-EBD686F02D98}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18984892-4E9D-8140-B05B-EBD686F02D98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18681,7 +19984,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18722,7 +20025,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18765,7 +20068,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19657,8 +20960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19691,7 +20994,7 @@
         <v>1213</v>
       </c>
       <c r="D2" t="str">
-        <f>SUBSTITUTE(A2, "mS/cm", "")</f>
+        <f t="shared" ref="D2:D65" si="0">SUBSTITUTE(A2, "mS/cm", "")</f>
         <v xml:space="preserve">11.19 </v>
       </c>
       <c r="E2">
@@ -19709,7 +21012,7 @@
         <v>1626</v>
       </c>
       <c r="D3" t="str">
-        <f>SUBSTITUTE(A3, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">10.44 </v>
       </c>
       <c r="E3">
@@ -19727,7 +21030,7 @@
         <v>1213</v>
       </c>
       <c r="D4" t="str">
-        <f>SUBSTITUTE(A4, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">10.20 </v>
       </c>
       <c r="E4">
@@ -19745,7 +21048,7 @@
         <v>1213</v>
       </c>
       <c r="D5" t="str">
-        <f>SUBSTITUTE(A5, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">9.902 </v>
       </c>
       <c r="E5">
@@ -19763,7 +21066,7 @@
         <v>1213</v>
       </c>
       <c r="D6" t="str">
-        <f>SUBSTITUTE(A6, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">9.576 </v>
       </c>
       <c r="E6">
@@ -19781,7 +21084,7 @@
         <v>1213</v>
       </c>
       <c r="D7" t="str">
-        <f>SUBSTITUTE(A7, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">9.293 </v>
       </c>
       <c r="E7">
@@ -19799,7 +21102,7 @@
         <v>1851</v>
       </c>
       <c r="D8" t="str">
-        <f>SUBSTITUTE(A8, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">8.999 </v>
       </c>
       <c r="E8">
@@ -19817,7 +21120,7 @@
         <v>1851</v>
       </c>
       <c r="D9" t="str">
-        <f>SUBSTITUTE(A9, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">8.784 </v>
       </c>
       <c r="E9">
@@ -19835,7 +21138,7 @@
         <v>1851</v>
       </c>
       <c r="D10" t="str">
-        <f>SUBSTITUTE(A10, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">8.560 </v>
       </c>
       <c r="E10">
@@ -19853,7 +21156,7 @@
         <v>1851</v>
       </c>
       <c r="D11" t="str">
-        <f>SUBSTITUTE(A11, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">8.339 </v>
       </c>
       <c r="E11">
@@ -19871,7 +21174,7 @@
         <v>1851</v>
       </c>
       <c r="D12" t="str">
-        <f>SUBSTITUTE(A12, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">8.151 </v>
       </c>
       <c r="E12">
@@ -19889,7 +21192,7 @@
         <v>1851</v>
       </c>
       <c r="D13" t="str">
-        <f>SUBSTITUTE(A13, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">7.971 </v>
       </c>
       <c r="E13">
@@ -19907,7 +21210,7 @@
         <v>1851</v>
       </c>
       <c r="D14" t="str">
-        <f>SUBSTITUTE(A14, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">7.810 </v>
       </c>
       <c r="E14">
@@ -19925,7 +21228,7 @@
         <v>1851</v>
       </c>
       <c r="D15" t="str">
-        <f>SUBSTITUTE(A15, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">7.658 </v>
       </c>
       <c r="E15">
@@ -19943,7 +21246,7 @@
         <v>1851</v>
       </c>
       <c r="D16" t="str">
-        <f>SUBSTITUTE(A16, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">7.512 </v>
       </c>
       <c r="E16">
@@ -19961,7 +21264,7 @@
         <v>1851</v>
       </c>
       <c r="D17" t="str">
-        <f>SUBSTITUTE(A17, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">7.377 </v>
       </c>
       <c r="E17">
@@ -19979,7 +21282,7 @@
         <v>1851</v>
       </c>
       <c r="D18" t="str">
-        <f>SUBSTITUTE(A18, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">7.253 </v>
       </c>
       <c r="E18">
@@ -19997,7 +21300,7 @@
         <v>1851</v>
       </c>
       <c r="D19" t="str">
-        <f>SUBSTITUTE(A19, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">7.156 </v>
       </c>
       <c r="E19">
@@ -20015,7 +21318,7 @@
         <v>1851</v>
       </c>
       <c r="D20" t="str">
-        <f>SUBSTITUTE(A20, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">7.044 </v>
       </c>
       <c r="E20">
@@ -20033,7 +21336,7 @@
         <v>1851</v>
       </c>
       <c r="D21" t="str">
-        <f>SUBSTITUTE(A21, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">6.940 </v>
       </c>
       <c r="E21">
@@ -20051,7 +21354,7 @@
         <v>1213</v>
       </c>
       <c r="D22" t="str">
-        <f>SUBSTITUTE(A22, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">6.855 </v>
       </c>
       <c r="E22">
@@ -20069,7 +21372,7 @@
         <v>1213</v>
       </c>
       <c r="D23" t="str">
-        <f>SUBSTITUTE(A23, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">6.759 </v>
       </c>
       <c r="E23">
@@ -20087,7 +21390,7 @@
         <v>1213</v>
       </c>
       <c r="D24" t="str">
-        <f>SUBSTITUTE(A24, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">6.676 </v>
       </c>
       <c r="E24">
@@ -20105,7 +21408,7 @@
         <v>1213</v>
       </c>
       <c r="D25" t="str">
-        <f>SUBSTITUTE(A25, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">6.593 </v>
       </c>
       <c r="E25">
@@ -20123,7 +21426,7 @@
         <v>1213</v>
       </c>
       <c r="D26" t="str">
-        <f>SUBSTITUTE(A26, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">6.516 </v>
       </c>
       <c r="E26">
@@ -20141,7 +21444,7 @@
         <v>1213</v>
       </c>
       <c r="D27" t="str">
-        <f>SUBSTITUTE(A27, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">6.441 </v>
       </c>
       <c r="E27">
@@ -20159,7 +21462,7 @@
         <v>1213</v>
       </c>
       <c r="D28" t="str">
-        <f>SUBSTITUTE(A28, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">6.372 </v>
       </c>
       <c r="E28">
@@ -20177,7 +21480,7 @@
         <v>1213</v>
       </c>
       <c r="D29" t="str">
-        <f>SUBSTITUTE(A29, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">6.307 </v>
       </c>
       <c r="E29">
@@ -20195,7 +21498,7 @@
         <v>1213</v>
       </c>
       <c r="D30" t="str">
-        <f>SUBSTITUTE(A30, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">6.247 </v>
       </c>
       <c r="E30">
@@ -20213,7 +21516,7 @@
         <v>1213</v>
       </c>
       <c r="D31" t="str">
-        <f>SUBSTITUTE(A31, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">6.183 </v>
       </c>
       <c r="E31">
@@ -20231,7 +21534,7 @@
         <v>1213</v>
       </c>
       <c r="D32" t="str">
-        <f>SUBSTITUTE(A32, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">6.125 </v>
       </c>
       <c r="E32">
@@ -20249,7 +21552,7 @@
         <v>1213</v>
       </c>
       <c r="D33" t="str">
-        <f>SUBSTITUTE(A33, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">6.067 </v>
       </c>
       <c r="E33">
@@ -20267,7 +21570,7 @@
         <v>1213</v>
       </c>
       <c r="D34" t="str">
-        <f>SUBSTITUTE(A34, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">6.013 </v>
       </c>
       <c r="E34">
@@ -20285,7 +21588,7 @@
         <v>1213</v>
       </c>
       <c r="D35" t="str">
-        <f>SUBSTITUTE(A35, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.956 </v>
       </c>
       <c r="E35">
@@ -20303,7 +21606,7 @@
         <v>1626</v>
       </c>
       <c r="D36" t="str">
-        <f>SUBSTITUTE(A36, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.922 </v>
       </c>
       <c r="E36">
@@ -20321,7 +21624,7 @@
         <v>1626</v>
       </c>
       <c r="D37" t="str">
-        <f>SUBSTITUTE(A37, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.876 </v>
       </c>
       <c r="E37">
@@ -20339,7 +21642,7 @@
         <v>1626</v>
       </c>
       <c r="D38" t="str">
-        <f>SUBSTITUTE(A38, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.826 </v>
       </c>
       <c r="E38">
@@ -20357,7 +21660,7 @@
         <v>1626</v>
       </c>
       <c r="D39" t="str">
-        <f>SUBSTITUTE(A39, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.791 </v>
       </c>
       <c r="E39">
@@ -20375,7 +21678,7 @@
         <v>1626</v>
       </c>
       <c r="D40" t="str">
-        <f>SUBSTITUTE(A40, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.740 </v>
       </c>
       <c r="E40">
@@ -20393,7 +21696,7 @@
         <v>1626</v>
       </c>
       <c r="D41" t="str">
-        <f>SUBSTITUTE(A41, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.693 </v>
       </c>
       <c r="E41">
@@ -20411,7 +21714,7 @@
         <v>1626</v>
       </c>
       <c r="D42" t="str">
-        <f>SUBSTITUTE(A42, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.657 </v>
       </c>
       <c r="E42">
@@ -20429,7 +21732,7 @@
         <v>1626</v>
       </c>
       <c r="D43" t="str">
-        <f>SUBSTITUTE(A43, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.609 </v>
       </c>
       <c r="E43">
@@ -20447,7 +21750,7 @@
         <v>1626</v>
       </c>
       <c r="D44" t="str">
-        <f>SUBSTITUTE(A44, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.577 </v>
       </c>
       <c r="E44">
@@ -20465,7 +21768,7 @@
         <v>1626</v>
       </c>
       <c r="D45" t="str">
-        <f>SUBSTITUTE(A45, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.544 </v>
       </c>
       <c r="E45">
@@ -20483,7 +21786,7 @@
         <v>1626</v>
       </c>
       <c r="D46" t="str">
-        <f>SUBSTITUTE(A46, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.513 </v>
       </c>
       <c r="E46">
@@ -20501,7 +21804,7 @@
         <v>1626</v>
       </c>
       <c r="D47" t="str">
-        <f>SUBSTITUTE(A47, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.479 </v>
       </c>
       <c r="E47">
@@ -20519,7 +21822,7 @@
         <v>1626</v>
       </c>
       <c r="D48" t="str">
-        <f>SUBSTITUTE(A48, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.447 </v>
       </c>
       <c r="E48">
@@ -20537,7 +21840,7 @@
         <v>1626</v>
       </c>
       <c r="D49" t="str">
-        <f>SUBSTITUTE(A49, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.431 </v>
       </c>
       <c r="E49">
@@ -20555,7 +21858,7 @@
         <v>1626</v>
       </c>
       <c r="D50" t="str">
-        <f>SUBSTITUTE(A50, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.403 </v>
       </c>
       <c r="E50">
@@ -20573,7 +21876,7 @@
         <v>2123</v>
       </c>
       <c r="D51" t="str">
-        <f>SUBSTITUTE(A51, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.379 </v>
       </c>
       <c r="E51">
@@ -20591,7 +21894,7 @@
         <v>2123</v>
       </c>
       <c r="D52" t="str">
-        <f>SUBSTITUTE(A52, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.351 </v>
       </c>
       <c r="E52">
@@ -20609,7 +21912,7 @@
         <v>2123</v>
       </c>
       <c r="D53" t="str">
-        <f>SUBSTITUTE(A53, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.323 </v>
       </c>
       <c r="E53">
@@ -20627,7 +21930,7 @@
         <v>2123</v>
       </c>
       <c r="D54" t="str">
-        <f>SUBSTITUTE(A54, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.286 </v>
       </c>
       <c r="E54">
@@ -20645,7 +21948,7 @@
         <v>2123</v>
       </c>
       <c r="D55" t="str">
-        <f>SUBSTITUTE(A55, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.269 </v>
       </c>
       <c r="E55">
@@ -20663,7 +21966,7 @@
         <v>2123</v>
       </c>
       <c r="D56" t="str">
-        <f>SUBSTITUTE(A56, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.232 </v>
       </c>
       <c r="E56">
@@ -20681,7 +21984,7 @@
         <v>2123</v>
       </c>
       <c r="D57" t="str">
-        <f>SUBSTITUTE(A57, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.217 </v>
       </c>
       <c r="E57">
@@ -20699,7 +22002,7 @@
         <v>2123</v>
       </c>
       <c r="D58" t="str">
-        <f>SUBSTITUTE(A58, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.189 </v>
       </c>
       <c r="E58">
@@ -20717,7 +22020,7 @@
         <v>2123</v>
       </c>
       <c r="D59" t="str">
-        <f>SUBSTITUTE(A59, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.156 </v>
       </c>
       <c r="E59">
@@ -20735,7 +22038,7 @@
         <v>2123</v>
       </c>
       <c r="D60" t="str">
-        <f>SUBSTITUTE(A60, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.145 </v>
       </c>
       <c r="E60">
@@ -20753,7 +22056,7 @@
         <v>2123</v>
       </c>
       <c r="D61" t="str">
-        <f>SUBSTITUTE(A61, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.128 </v>
       </c>
       <c r="E61">
@@ -20771,7 +22074,7 @@
         <v>2123</v>
       </c>
       <c r="D62" t="str">
-        <f>SUBSTITUTE(A62, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.107 </v>
       </c>
       <c r="E62">
@@ -20789,7 +22092,7 @@
         <v>2123</v>
       </c>
       <c r="D63" t="str">
-        <f>SUBSTITUTE(A63, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.090 </v>
       </c>
       <c r="E63">
@@ -20807,7 +22110,7 @@
         <v>2123</v>
       </c>
       <c r="D64" t="str">
-        <f>SUBSTITUTE(A64, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.070 </v>
       </c>
       <c r="E64">
@@ -20825,7 +22128,7 @@
         <v>2123</v>
       </c>
       <c r="D65" t="str">
-        <f>SUBSTITUTE(A65, "mS/cm", "")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">5.046 </v>
       </c>
       <c r="E65">
@@ -20843,7 +22146,7 @@
         <v>2123</v>
       </c>
       <c r="D66" t="str">
-        <f>SUBSTITUTE(A66, "mS/cm", "")</f>
+        <f t="shared" ref="D66:D129" si="1">SUBSTITUTE(A66, "mS/cm", "")</f>
         <v xml:space="preserve">5.037 </v>
       </c>
       <c r="E66">
@@ -20861,7 +22164,7 @@
         <v>2123</v>
       </c>
       <c r="D67" t="str">
-        <f>SUBSTITUTE(A67, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">5.014 </v>
       </c>
       <c r="E67">
@@ -20879,7 +22182,7 @@
         <v>2123</v>
       </c>
       <c r="D68" t="str">
-        <f>SUBSTITUTE(A68, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.994 </v>
       </c>
       <c r="E68">
@@ -20897,7 +22200,7 @@
         <v>2123</v>
       </c>
       <c r="D69" t="str">
-        <f>SUBSTITUTE(A69, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.980 </v>
       </c>
       <c r="E69">
@@ -20915,7 +22218,7 @@
         <v>2123</v>
       </c>
       <c r="D70" t="str">
-        <f>SUBSTITUTE(A70, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.970 </v>
       </c>
       <c r="E70">
@@ -20933,7 +22236,7 @@
         <v>2123</v>
       </c>
       <c r="D71" t="str">
-        <f>SUBSTITUTE(A71, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.955 </v>
       </c>
       <c r="E71">
@@ -20951,7 +22254,7 @@
         <v>4231</v>
       </c>
       <c r="D72" t="str">
-        <f>SUBSTITUTE(A72, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.941 </v>
       </c>
       <c r="E72">
@@ -20969,7 +22272,7 @@
         <v>4231</v>
       </c>
       <c r="D73" t="str">
-        <f>SUBSTITUTE(A73, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.931 </v>
       </c>
       <c r="E73">
@@ -20987,7 +22290,7 @@
         <v>4231</v>
       </c>
       <c r="D74" t="str">
-        <f>SUBSTITUTE(A74, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.906 </v>
       </c>
       <c r="E74">
@@ -21005,7 +22308,7 @@
         <v>4231</v>
       </c>
       <c r="D75" t="str">
-        <f>SUBSTITUTE(A75, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.896 </v>
       </c>
       <c r="E75">
@@ -21023,7 +22326,7 @@
         <v>4231</v>
       </c>
       <c r="D76" t="str">
-        <f>SUBSTITUTE(A76, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.881 </v>
       </c>
       <c r="E76">
@@ -21041,7 +22344,7 @@
         <v>4231</v>
       </c>
       <c r="D77" t="str">
-        <f>SUBSTITUTE(A77, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.867 </v>
       </c>
       <c r="E77">
@@ -21059,7 +22362,7 @@
         <v>4231</v>
       </c>
       <c r="D78" t="str">
-        <f>SUBSTITUTE(A78, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.857 </v>
       </c>
       <c r="E78">
@@ -21077,7 +22380,7 @@
         <v>4231</v>
       </c>
       <c r="D79" t="str">
-        <f>SUBSTITUTE(A79, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.847 </v>
       </c>
       <c r="E79">
@@ -21095,7 +22398,7 @@
         <v>4231</v>
       </c>
       <c r="D80" t="str">
-        <f>SUBSTITUTE(A80, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.832 </v>
       </c>
       <c r="E80">
@@ -21113,7 +22416,7 @@
         <v>4231</v>
       </c>
       <c r="D81" t="str">
-        <f>SUBSTITUTE(A81, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.817 </v>
       </c>
       <c r="E81">
@@ -21131,7 +22434,7 @@
         <v>4231</v>
       </c>
       <c r="D82" t="str">
-        <f>SUBSTITUTE(A82, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.805 </v>
       </c>
       <c r="E82">
@@ -21149,7 +22452,7 @@
         <v>4231</v>
       </c>
       <c r="D83" t="str">
-        <f>SUBSTITUTE(A83, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.795 </v>
       </c>
       <c r="E83">
@@ -21167,7 +22470,7 @@
         <v>4231</v>
       </c>
       <c r="D84" t="str">
-        <f>SUBSTITUTE(A84, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.783 </v>
       </c>
       <c r="E84">
@@ -21185,7 +22488,7 @@
         <v>4231</v>
       </c>
       <c r="D85" t="str">
-        <f>SUBSTITUTE(A85, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.772 </v>
       </c>
       <c r="E85">
@@ -21203,7 +22506,7 @@
         <v>4231</v>
       </c>
       <c r="D86" t="str">
-        <f>SUBSTITUTE(A86, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.760 </v>
       </c>
       <c r="E86">
@@ -21221,7 +22524,7 @@
         <v>4231</v>
       </c>
       <c r="D87" t="str">
-        <f>SUBSTITUTE(A87, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.745 </v>
       </c>
       <c r="E87">
@@ -21239,7 +22542,7 @@
         <v>4231</v>
       </c>
       <c r="D88" t="str">
-        <f>SUBSTITUTE(A88, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.733 </v>
       </c>
       <c r="E88">
@@ -21257,7 +22560,7 @@
         <v>4231</v>
       </c>
       <c r="D89" t="str">
-        <f>SUBSTITUTE(A89, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.723 </v>
       </c>
       <c r="E89">
@@ -21275,7 +22578,7 @@
         <v>4231</v>
       </c>
       <c r="D90" t="str">
-        <f>SUBSTITUTE(A90, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.714 </v>
       </c>
       <c r="E90">
@@ -21293,7 +22596,7 @@
         <v>4231</v>
       </c>
       <c r="D91" t="str">
-        <f>SUBSTITUTE(A91, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.701 </v>
       </c>
       <c r="E91">
@@ -21311,7 +22614,7 @@
         <v>4231</v>
       </c>
       <c r="D92" t="str">
-        <f>SUBSTITUTE(A92, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.691 </v>
       </c>
       <c r="E92">
@@ -21329,7 +22632,7 @@
         <v>4231</v>
       </c>
       <c r="D93" t="str">
-        <f>SUBSTITUTE(A93, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.687 </v>
       </c>
       <c r="E93">
@@ -21347,7 +22650,7 @@
         <v>4231</v>
       </c>
       <c r="D94" t="str">
-        <f>SUBSTITUTE(A94, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.673 </v>
       </c>
       <c r="E94">
@@ -21365,7 +22668,7 @@
         <v>4231</v>
       </c>
       <c r="D95" t="str">
-        <f>SUBSTITUTE(A95, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.663 </v>
       </c>
       <c r="E95">
@@ -21383,7 +22686,7 @@
         <v>4231</v>
       </c>
       <c r="D96" t="str">
-        <f>SUBSTITUTE(A96, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.652 </v>
       </c>
       <c r="E96">
@@ -21401,7 +22704,7 @@
         <v>4231</v>
       </c>
       <c r="D97" t="str">
-        <f>SUBSTITUTE(A97, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.641 </v>
       </c>
       <c r="E97">
@@ -21419,7 +22722,7 @@
         <v>4231</v>
       </c>
       <c r="D98" t="str">
-        <f>SUBSTITUTE(A98, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.632 </v>
       </c>
       <c r="E98">
@@ -21437,7 +22740,7 @@
         <v>4231</v>
       </c>
       <c r="D99" t="str">
-        <f>SUBSTITUTE(A99, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.620 </v>
       </c>
       <c r="E99">
@@ -21455,7 +22758,7 @@
         <v>4231</v>
       </c>
       <c r="D100" t="str">
-        <f>SUBSTITUTE(A100, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.616 </v>
       </c>
       <c r="E100">
@@ -21473,7 +22776,7 @@
         <v>4231</v>
       </c>
       <c r="D101" t="str">
-        <f>SUBSTITUTE(A101, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.614 </v>
       </c>
       <c r="E101">
@@ -21491,7 +22794,7 @@
         <v>4231</v>
       </c>
       <c r="D102" t="str">
-        <f>SUBSTITUTE(A102, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.597 </v>
       </c>
       <c r="E102">
@@ -21509,7 +22812,7 @@
         <v>4231</v>
       </c>
       <c r="D103" t="str">
-        <f>SUBSTITUTE(A103, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.593 </v>
       </c>
       <c r="E103">
@@ -21527,7 +22830,7 @@
         <v>4231</v>
       </c>
       <c r="D104" t="str">
-        <f>SUBSTITUTE(A104, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.582 </v>
       </c>
       <c r="E104">
@@ -21545,7 +22848,7 @@
         <v>4231</v>
       </c>
       <c r="D105" t="str">
-        <f>SUBSTITUTE(A105, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.572 </v>
       </c>
       <c r="E105">
@@ -21563,7 +22866,7 @@
         <v>3924</v>
       </c>
       <c r="D106" t="str">
-        <f>SUBSTITUTE(A106, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.580 </v>
       </c>
       <c r="E106">
@@ -21581,7 +22884,7 @@
         <v>3924</v>
       </c>
       <c r="D107" t="str">
-        <f>SUBSTITUTE(A107, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.568 </v>
       </c>
       <c r="E107">
@@ -21599,7 +22902,7 @@
         <v>3924</v>
       </c>
       <c r="D108" t="str">
-        <f>SUBSTITUTE(A108, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.561 </v>
       </c>
       <c r="E108">
@@ -21617,7 +22920,7 @@
         <v>3924</v>
       </c>
       <c r="D109" t="str">
-        <f>SUBSTITUTE(A109, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.551 </v>
       </c>
       <c r="E109">
@@ -21635,7 +22938,7 @@
         <v>3924</v>
       </c>
       <c r="D110" t="str">
-        <f>SUBSTITUTE(A110, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.541 </v>
       </c>
       <c r="E110">
@@ -21653,7 +22956,7 @@
         <v>3924</v>
       </c>
       <c r="D111" t="str">
-        <f>SUBSTITUTE(A111, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.538 </v>
       </c>
       <c r="E111">
@@ -21671,7 +22974,7 @@
         <v>3924</v>
       </c>
       <c r="D112" t="str">
-        <f>SUBSTITUTE(A112, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.528 </v>
       </c>
       <c r="E112">
@@ -21689,7 +22992,7 @@
         <v>3924</v>
       </c>
       <c r="D113" t="str">
-        <f>SUBSTITUTE(A113, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.525 </v>
       </c>
       <c r="E113">
@@ -21707,7 +23010,7 @@
         <v>3924</v>
       </c>
       <c r="D114" t="str">
-        <f>SUBSTITUTE(A114, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.521 </v>
       </c>
       <c r="E114">
@@ -21725,7 +23028,7 @@
         <v>3924</v>
       </c>
       <c r="D115" t="str">
-        <f>SUBSTITUTE(A115, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.506 </v>
       </c>
       <c r="E115">
@@ -21743,7 +23046,7 @@
         <v>3924</v>
       </c>
       <c r="D116" t="str">
-        <f>SUBSTITUTE(A116, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.502 </v>
       </c>
       <c r="E116">
@@ -21761,7 +23064,7 @@
         <v>3924</v>
       </c>
       <c r="D117" t="str">
-        <f>SUBSTITUTE(A117, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.499 </v>
       </c>
       <c r="E117">
@@ -21779,7 +23082,7 @@
         <v>3924</v>
       </c>
       <c r="D118" t="str">
-        <f>SUBSTITUTE(A118, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.493 </v>
       </c>
       <c r="E118">
@@ -21797,7 +23100,7 @@
         <v>3924</v>
       </c>
       <c r="D119" t="str">
-        <f>SUBSTITUTE(A119, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.486 </v>
       </c>
       <c r="E119">
@@ -21815,7 +23118,7 @@
         <v>3924</v>
       </c>
       <c r="D120" t="str">
-        <f>SUBSTITUTE(A120, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.480 </v>
       </c>
       <c r="E120">
@@ -21833,7 +23136,7 @@
         <v>3924</v>
       </c>
       <c r="D121" t="str">
-        <f>SUBSTITUTE(A121, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.471 </v>
       </c>
       <c r="E121">
@@ -21851,7 +23154,7 @@
         <v>3924</v>
       </c>
       <c r="D122" t="str">
-        <f>SUBSTITUTE(A122, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.468 </v>
       </c>
       <c r="E122">
@@ -21869,7 +23172,7 @@
         <v>3924</v>
       </c>
       <c r="D123" t="str">
-        <f>SUBSTITUTE(A123, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.454 </v>
       </c>
       <c r="E123">
@@ -21887,7 +23190,7 @@
         <v>3924</v>
       </c>
       <c r="D124" t="str">
-        <f>SUBSTITUTE(A124, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.454 </v>
       </c>
       <c r="E124">
@@ -21905,7 +23208,7 @@
         <v>3924</v>
       </c>
       <c r="D125" t="str">
-        <f>SUBSTITUTE(A125, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.447 </v>
       </c>
       <c r="E125">
@@ -21923,7 +23226,7 @@
         <v>3924</v>
       </c>
       <c r="D126" t="str">
-        <f>SUBSTITUTE(A126, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.439 </v>
       </c>
       <c r="E126">
@@ -21941,7 +23244,7 @@
         <v>3924</v>
       </c>
       <c r="D127" t="str">
-        <f>SUBSTITUTE(A127, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.434 </v>
       </c>
       <c r="E127">
@@ -21959,7 +23262,7 @@
         <v>3924</v>
       </c>
       <c r="D128" t="str">
-        <f>SUBSTITUTE(A128, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.434 </v>
       </c>
       <c r="E128">
@@ -21977,7 +23280,7 @@
         <v>3924</v>
       </c>
       <c r="D129" t="str">
-        <f>SUBSTITUTE(A129, "mS/cm", "")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">4.430 </v>
       </c>
       <c r="E129">
@@ -21995,7 +23298,7 @@
         <v>3924</v>
       </c>
       <c r="D130" t="str">
-        <f>SUBSTITUTE(A130, "mS/cm", "")</f>
+        <f t="shared" ref="D130:D193" si="2">SUBSTITUTE(A130, "mS/cm", "")</f>
         <v xml:space="preserve">4.425 </v>
       </c>
       <c r="E130">
@@ -22013,7 +23316,7 @@
         <v>3924</v>
       </c>
       <c r="D131" t="str">
-        <f>SUBSTITUTE(A131, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.417 </v>
       </c>
       <c r="E131">
@@ -22031,7 +23334,7 @@
         <v>3924</v>
       </c>
       <c r="D132" t="str">
-        <f>SUBSTITUTE(A132, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.410 </v>
       </c>
       <c r="E132">
@@ -22049,7 +23352,7 @@
         <v>3924</v>
       </c>
       <c r="D133" t="str">
-        <f>SUBSTITUTE(A133, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.405 </v>
       </c>
       <c r="E133">
@@ -22067,7 +23370,7 @@
         <v>3924</v>
       </c>
       <c r="D134" t="str">
-        <f>SUBSTITUTE(A134, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.397 </v>
       </c>
       <c r="E134">
@@ -22085,7 +23388,7 @@
         <v>3924</v>
       </c>
       <c r="D135" t="str">
-        <f>SUBSTITUTE(A135, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.394 </v>
       </c>
       <c r="E135">
@@ -22103,7 +23406,7 @@
         <v>3924</v>
       </c>
       <c r="D136" t="str">
-        <f>SUBSTITUTE(A136, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.388 </v>
       </c>
       <c r="E136">
@@ -22121,7 +23424,7 @@
         <v>3924</v>
       </c>
       <c r="D137" t="str">
-        <f>SUBSTITUTE(A137, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.383 </v>
       </c>
       <c r="E137">
@@ -22139,7 +23442,7 @@
         <v>3924</v>
       </c>
       <c r="D138" t="str">
-        <f>SUBSTITUTE(A138, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.381 </v>
       </c>
       <c r="E138">
@@ -22157,7 +23460,7 @@
         <v>3924</v>
       </c>
       <c r="D139" t="str">
-        <f>SUBSTITUTE(A139, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.376 </v>
       </c>
       <c r="E139">
@@ -22175,7 +23478,7 @@
         <v>3924</v>
       </c>
       <c r="D140" t="str">
-        <f>SUBSTITUTE(A140, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.371 </v>
       </c>
       <c r="E140">
@@ -22193,7 +23496,7 @@
         <v>3924</v>
       </c>
       <c r="D141" t="str">
-        <f>SUBSTITUTE(A141, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.368 </v>
       </c>
       <c r="E141">
@@ -22211,7 +23514,7 @@
         <v>3924</v>
       </c>
       <c r="D142" t="str">
-        <f>SUBSTITUTE(A142, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.363 </v>
       </c>
       <c r="E142">
@@ -22229,7 +23532,7 @@
         <v>3924</v>
       </c>
       <c r="D143" t="str">
-        <f>SUBSTITUTE(A143, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.360 </v>
       </c>
       <c r="E143">
@@ -22247,7 +23550,7 @@
         <v>3924</v>
       </c>
       <c r="D144" t="str">
-        <f>SUBSTITUTE(A144, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.354 </v>
       </c>
       <c r="E144">
@@ -22265,7 +23568,7 @@
         <v>3924</v>
       </c>
       <c r="D145" t="str">
-        <f>SUBSTITUTE(A145, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.348 </v>
       </c>
       <c r="E145">
@@ -22283,7 +23586,7 @@
         <v>3924</v>
       </c>
       <c r="D146" t="str">
-        <f>SUBSTITUTE(A146, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.345 </v>
       </c>
       <c r="E146">
@@ -22301,7 +23604,7 @@
         <v>3924</v>
       </c>
       <c r="D147" t="str">
-        <f>SUBSTITUTE(A147, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.340 </v>
       </c>
       <c r="E147">
@@ -22319,7 +23622,7 @@
         <v>3924</v>
       </c>
       <c r="D148" t="str">
-        <f>SUBSTITUTE(A148, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.336 </v>
       </c>
       <c r="E148">
@@ -22337,7 +23640,7 @@
         <v>3924</v>
       </c>
       <c r="D149" t="str">
-        <f>SUBSTITUTE(A149, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.333 </v>
       </c>
       <c r="E149">
@@ -22355,7 +23658,7 @@
         <v>3924</v>
       </c>
       <c r="D150" t="str">
-        <f>SUBSTITUTE(A150, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.329 </v>
       </c>
       <c r="E150">
@@ -22373,7 +23676,7 @@
         <v>3924</v>
       </c>
       <c r="D151" t="str">
-        <f>SUBSTITUTE(A151, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.321 </v>
       </c>
       <c r="E151">
@@ -22391,7 +23694,7 @@
         <v>3924</v>
       </c>
       <c r="D152" t="str">
-        <f>SUBSTITUTE(A152, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.321 </v>
       </c>
       <c r="E152">
@@ -22409,7 +23712,7 @@
         <v>3924</v>
       </c>
       <c r="D153" t="str">
-        <f>SUBSTITUTE(A153, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.313 </v>
       </c>
       <c r="E153">
@@ -22427,7 +23730,7 @@
         <v>3924</v>
       </c>
       <c r="D154" t="str">
-        <f>SUBSTITUTE(A154, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.311 </v>
       </c>
       <c r="E154">
@@ -22445,7 +23748,7 @@
         <v>3924</v>
       </c>
       <c r="D155" t="str">
-        <f>SUBSTITUTE(A155, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.306 </v>
       </c>
       <c r="E155">
@@ -22463,7 +23766,7 @@
         <v>3924</v>
       </c>
       <c r="D156" t="str">
-        <f>SUBSTITUTE(A156, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.304 </v>
       </c>
       <c r="E156">
@@ -22481,7 +23784,7 @@
         <v>3924</v>
       </c>
       <c r="D157" t="str">
-        <f>SUBSTITUTE(A157, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.299 </v>
       </c>
       <c r="E157">
@@ -22499,7 +23802,7 @@
         <v>3924</v>
       </c>
       <c r="D158" t="str">
-        <f>SUBSTITUTE(A158, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.297 </v>
       </c>
       <c r="E158">
@@ -22517,7 +23820,7 @@
         <v>3924</v>
       </c>
       <c r="D159" t="str">
-        <f>SUBSTITUTE(A159, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.295 </v>
       </c>
       <c r="E159">
@@ -22535,7 +23838,7 @@
         <v>3924</v>
       </c>
       <c r="D160" t="str">
-        <f>SUBSTITUTE(A160, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.290 </v>
       </c>
       <c r="E160">
@@ -22553,7 +23856,7 @@
         <v>3924</v>
       </c>
       <c r="D161" t="str">
-        <f>SUBSTITUTE(A161, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.287 </v>
       </c>
       <c r="E161">
@@ -22571,7 +23874,7 @@
         <v>3924</v>
       </c>
       <c r="D162" t="str">
-        <f>SUBSTITUTE(A162, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.283 </v>
       </c>
       <c r="E162">
@@ -22589,7 +23892,7 @@
         <v>3924</v>
       </c>
       <c r="D163" t="str">
-        <f>SUBSTITUTE(A163, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.280 </v>
       </c>
       <c r="E163">
@@ -22607,7 +23910,7 @@
         <v>3924</v>
       </c>
       <c r="D164" t="str">
-        <f>SUBSTITUTE(A164, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.276 </v>
       </c>
       <c r="E164">
@@ -22625,7 +23928,7 @@
         <v>3924</v>
       </c>
       <c r="D165" t="str">
-        <f>SUBSTITUTE(A165, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.272 </v>
       </c>
       <c r="E165">
@@ -22643,7 +23946,7 @@
         <v>3924</v>
       </c>
       <c r="D166" t="str">
-        <f>SUBSTITUTE(A166, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.269 </v>
       </c>
       <c r="E166">
@@ -22661,7 +23964,7 @@
         <v>3924</v>
       </c>
       <c r="D167" t="str">
-        <f>SUBSTITUTE(A167, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.266 </v>
       </c>
       <c r="E167">
@@ -22679,7 +23982,7 @@
         <v>3924</v>
       </c>
       <c r="D168" t="str">
-        <f>SUBSTITUTE(A168, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.265 </v>
       </c>
       <c r="E168">
@@ -22697,7 +24000,7 @@
         <v>3924</v>
       </c>
       <c r="D169" t="str">
-        <f>SUBSTITUTE(A169, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.260 </v>
       </c>
       <c r="E169">
@@ -22715,7 +24018,7 @@
         <v>3924</v>
       </c>
       <c r="D170" t="str">
-        <f>SUBSTITUTE(A170, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.257 </v>
       </c>
       <c r="E170">
@@ -22733,7 +24036,7 @@
         <v>3924</v>
       </c>
       <c r="D171" t="str">
-        <f>SUBSTITUTE(A171, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.253 </v>
       </c>
       <c r="E171">
@@ -22751,7 +24054,7 @@
         <v>3924</v>
       </c>
       <c r="D172" t="str">
-        <f>SUBSTITUTE(A172, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.249 </v>
       </c>
       <c r="E172">
@@ -22769,7 +24072,7 @@
         <v>3924</v>
       </c>
       <c r="D173" t="str">
-        <f>SUBSTITUTE(A173, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.245 </v>
       </c>
       <c r="E173">
@@ -22787,7 +24090,7 @@
         <v>3924</v>
       </c>
       <c r="D174" t="str">
-        <f>SUBSTITUTE(A174, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.245 </v>
       </c>
       <c r="E174">
@@ -22805,7 +24108,7 @@
         <v>3924</v>
       </c>
       <c r="D175" t="str">
-        <f>SUBSTITUTE(A175, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.243 </v>
       </c>
       <c r="E175">
@@ -22823,7 +24126,7 @@
         <v>3924</v>
       </c>
       <c r="D176" t="str">
-        <f>SUBSTITUTE(A176, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.239 </v>
       </c>
       <c r="E176">
@@ -22841,7 +24144,7 @@
         <v>3924</v>
       </c>
       <c r="D177" t="str">
-        <f>SUBSTITUTE(A177, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.237 </v>
       </c>
       <c r="E177">
@@ -22859,7 +24162,7 @@
         <v>3924</v>
       </c>
       <c r="D178" t="str">
-        <f>SUBSTITUTE(A178, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.234 </v>
       </c>
       <c r="E178">
@@ -22877,7 +24180,7 @@
         <v>3924</v>
       </c>
       <c r="D179" t="str">
-        <f>SUBSTITUTE(A179, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.232 </v>
       </c>
       <c r="E179">
@@ -22895,7 +24198,7 @@
         <v>3924</v>
       </c>
       <c r="D180" t="str">
-        <f>SUBSTITUTE(A180, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.228 </v>
       </c>
       <c r="E180">
@@ -22913,7 +24216,7 @@
         <v>3924</v>
       </c>
       <c r="D181" t="str">
-        <f>SUBSTITUTE(A181, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.224 </v>
       </c>
       <c r="E181">
@@ -22931,7 +24234,7 @@
         <v>3924</v>
       </c>
       <c r="D182" t="str">
-        <f>SUBSTITUTE(A182, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.222 </v>
       </c>
       <c r="E182">
@@ -22949,7 +24252,7 @@
         <v>3924</v>
       </c>
       <c r="D183" t="str">
-        <f>SUBSTITUTE(A183, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.218 </v>
       </c>
       <c r="E183">
@@ -22967,7 +24270,7 @@
         <v>3924</v>
       </c>
       <c r="D184" t="str">
-        <f>SUBSTITUTE(A184, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.216 </v>
       </c>
       <c r="E184">
@@ -22985,7 +24288,7 @@
         <v>3924</v>
       </c>
       <c r="D185" t="str">
-        <f>SUBSTITUTE(A185, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.213 </v>
       </c>
       <c r="E185">
@@ -23003,7 +24306,7 @@
         <v>3924</v>
       </c>
       <c r="D186" t="str">
-        <f>SUBSTITUTE(A186, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.212 </v>
       </c>
       <c r="E186">
@@ -23021,7 +24324,7 @@
         <v>3924</v>
       </c>
       <c r="D187" t="str">
-        <f>SUBSTITUTE(A187, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.208 </v>
       </c>
       <c r="E187">
@@ -23039,7 +24342,7 @@
         <v>3924</v>
       </c>
       <c r="D188" t="str">
-        <f>SUBSTITUTE(A188, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.207 </v>
       </c>
       <c r="E188">
@@ -23057,7 +24360,7 @@
         <v>3924</v>
       </c>
       <c r="D189" t="str">
-        <f>SUBSTITUTE(A189, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.204 </v>
       </c>
       <c r="E189">
@@ -23075,7 +24378,7 @@
         <v>3924</v>
       </c>
       <c r="D190" t="str">
-        <f>SUBSTITUTE(A190, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.202 </v>
       </c>
       <c r="E190">
@@ -23093,7 +24396,7 @@
         <v>3924</v>
       </c>
       <c r="D191" t="str">
-        <f>SUBSTITUTE(A191, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.198 </v>
       </c>
       <c r="E191">
@@ -23111,7 +24414,7 @@
         <v>3924</v>
       </c>
       <c r="D192" t="str">
-        <f>SUBSTITUTE(A192, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.195 </v>
       </c>
       <c r="E192">
@@ -23129,7 +24432,7 @@
         <v>3924</v>
       </c>
       <c r="D193" t="str">
-        <f>SUBSTITUTE(A193, "mS/cm", "")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">4.193 </v>
       </c>
       <c r="E193">
@@ -23147,7 +24450,7 @@
         <v>3924</v>
       </c>
       <c r="D194" t="str">
-        <f>SUBSTITUTE(A194, "mS/cm", "")</f>
+        <f t="shared" ref="D194:D257" si="3">SUBSTITUTE(A194, "mS/cm", "")</f>
         <v xml:space="preserve">4.189 </v>
       </c>
       <c r="E194">
@@ -23165,7 +24468,7 @@
         <v>3924</v>
       </c>
       <c r="D195" t="str">
-        <f>SUBSTITUTE(A195, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.187 </v>
       </c>
       <c r="E195">
@@ -23183,7 +24486,7 @@
         <v>3924</v>
       </c>
       <c r="D196" t="str">
-        <f>SUBSTITUTE(A196, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.185 </v>
       </c>
       <c r="E196">
@@ -23201,7 +24504,7 @@
         <v>3924</v>
       </c>
       <c r="D197" t="str">
-        <f>SUBSTITUTE(A197, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.183 </v>
       </c>
       <c r="E197">
@@ -23219,7 +24522,7 @@
         <v>3924</v>
       </c>
       <c r="D198" t="str">
-        <f>SUBSTITUTE(A198, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.182 </v>
       </c>
       <c r="E198">
@@ -23237,7 +24540,7 @@
         <v>3924</v>
       </c>
       <c r="D199" t="str">
-        <f>SUBSTITUTE(A199, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.179 </v>
       </c>
       <c r="E199">
@@ -23255,7 +24558,7 @@
         <v>3924</v>
       </c>
       <c r="D200" t="str">
-        <f>SUBSTITUTE(A200, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.176 </v>
       </c>
       <c r="E200">
@@ -23273,7 +24576,7 @@
         <v>3924</v>
       </c>
       <c r="D201" t="str">
-        <f>SUBSTITUTE(A201, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.174 </v>
       </c>
       <c r="E201">
@@ -23291,7 +24594,7 @@
         <v>3924</v>
       </c>
       <c r="D202" t="str">
-        <f>SUBSTITUTE(A202, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.170 </v>
       </c>
       <c r="E202">
@@ -23309,7 +24612,7 @@
         <v>3924</v>
       </c>
       <c r="D203" t="str">
-        <f>SUBSTITUTE(A203, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.170 </v>
       </c>
       <c r="E203">
@@ -23327,7 +24630,7 @@
         <v>3924</v>
       </c>
       <c r="D204" t="str">
-        <f>SUBSTITUTE(A204, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.169 </v>
       </c>
       <c r="E204">
@@ -23345,7 +24648,7 @@
         <v>3924</v>
       </c>
       <c r="D205" t="str">
-        <f>SUBSTITUTE(A205, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.164 </v>
       </c>
       <c r="E205">
@@ -23363,7 +24666,7 @@
         <v>3924</v>
       </c>
       <c r="D206" t="str">
-        <f>SUBSTITUTE(A206, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.163 </v>
       </c>
       <c r="E206">
@@ -23381,7 +24684,7 @@
         <v>3924</v>
       </c>
       <c r="D207" t="str">
-        <f>SUBSTITUTE(A207, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.160 </v>
       </c>
       <c r="E207">
@@ -23399,7 +24702,7 @@
         <v>3924</v>
       </c>
       <c r="D208" t="str">
-        <f>SUBSTITUTE(A208, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.158 </v>
       </c>
       <c r="E208">
@@ -23417,7 +24720,7 @@
         <v>3924</v>
       </c>
       <c r="D209" t="str">
-        <f>SUBSTITUTE(A209, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.155 </v>
       </c>
       <c r="E209">
@@ -23435,7 +24738,7 @@
         <v>3924</v>
       </c>
       <c r="D210" t="str">
-        <f>SUBSTITUTE(A210, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.153 </v>
       </c>
       <c r="E210">
@@ -23453,7 +24756,7 @@
         <v>3924</v>
       </c>
       <c r="D211" t="str">
-        <f>SUBSTITUTE(A211, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.152 </v>
       </c>
       <c r="E211">
@@ -23471,7 +24774,7 @@
         <v>3924</v>
       </c>
       <c r="D212" t="str">
-        <f>SUBSTITUTE(A212, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.150 </v>
       </c>
       <c r="E212">
@@ -23489,7 +24792,7 @@
         <v>3924</v>
       </c>
       <c r="D213" t="str">
-        <f>SUBSTITUTE(A213, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.147 </v>
       </c>
       <c r="E213">
@@ -23507,7 +24810,7 @@
         <v>3924</v>
       </c>
       <c r="D214" t="str">
-        <f>SUBSTITUTE(A214, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.144 </v>
       </c>
       <c r="E214">
@@ -23525,7 +24828,7 @@
         <v>3924</v>
       </c>
       <c r="D215" t="str">
-        <f>SUBSTITUTE(A215, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.142 </v>
       </c>
       <c r="E215">
@@ -23543,7 +24846,7 @@
         <v>3924</v>
       </c>
       <c r="D216" t="str">
-        <f>SUBSTITUTE(A216, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.142 </v>
       </c>
       <c r="E216">
@@ -23561,7 +24864,7 @@
         <v>3924</v>
       </c>
       <c r="D217" t="str">
-        <f>SUBSTITUTE(A217, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.140 </v>
       </c>
       <c r="E217">
@@ -23579,7 +24882,7 @@
         <v>3924</v>
       </c>
       <c r="D218" t="str">
-        <f>SUBSTITUTE(A218, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.139 </v>
       </c>
       <c r="E218">
@@ -23597,7 +24900,7 @@
         <v>3924</v>
       </c>
       <c r="D219" t="str">
-        <f>SUBSTITUTE(A219, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.137 </v>
       </c>
       <c r="E219">
@@ -23615,7 +24918,7 @@
         <v>3924</v>
       </c>
       <c r="D220" t="str">
-        <f>SUBSTITUTE(A220, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.135 </v>
       </c>
       <c r="E220">
@@ -23633,7 +24936,7 @@
         <v>3924</v>
       </c>
       <c r="D221" t="str">
-        <f>SUBSTITUTE(A221, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.133 </v>
       </c>
       <c r="E221">
@@ -23651,7 +24954,7 @@
         <v>3924</v>
       </c>
       <c r="D222" t="str">
-        <f>SUBSTITUTE(A222, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.130 </v>
       </c>
       <c r="E222">
@@ -23669,7 +24972,7 @@
         <v>3924</v>
       </c>
       <c r="D223" t="str">
-        <f>SUBSTITUTE(A223, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.129 </v>
       </c>
       <c r="E223">
@@ -23687,7 +24990,7 @@
         <v>3924</v>
       </c>
       <c r="D224" t="str">
-        <f>SUBSTITUTE(A224, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.127 </v>
       </c>
       <c r="E224">
@@ -23705,7 +25008,7 @@
         <v>3924</v>
       </c>
       <c r="D225" t="str">
-        <f>SUBSTITUTE(A225, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.125 </v>
       </c>
       <c r="E225">
@@ -23723,7 +25026,7 @@
         <v>3924</v>
       </c>
       <c r="D226" t="str">
-        <f>SUBSTITUTE(A226, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.124 </v>
       </c>
       <c r="E226">
@@ -23741,7 +25044,7 @@
         <v>3924</v>
       </c>
       <c r="D227" t="str">
-        <f>SUBSTITUTE(A227, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.123 </v>
       </c>
       <c r="E227">
@@ -23759,7 +25062,7 @@
         <v>3924</v>
       </c>
       <c r="D228" t="str">
-        <f>SUBSTITUTE(A228, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.118 </v>
       </c>
       <c r="E228">
@@ -23777,7 +25080,7 @@
         <v>3924</v>
       </c>
       <c r="D229" t="str">
-        <f>SUBSTITUTE(A229, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.117 </v>
       </c>
       <c r="E229">
@@ -23795,7 +25098,7 @@
         <v>3924</v>
       </c>
       <c r="D230" t="str">
-        <f>SUBSTITUTE(A230, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.117 </v>
       </c>
       <c r="E230">
@@ -23813,7 +25116,7 @@
         <v>3924</v>
       </c>
       <c r="D231" t="str">
-        <f>SUBSTITUTE(A231, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.113 </v>
       </c>
       <c r="E231">
@@ -23831,7 +25134,7 @@
         <v>3924</v>
       </c>
       <c r="D232" t="str">
-        <f>SUBSTITUTE(A232, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.112 </v>
       </c>
       <c r="E232">
@@ -23849,7 +25152,7 @@
         <v>3924</v>
       </c>
       <c r="D233" t="str">
-        <f>SUBSTITUTE(A233, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.109 </v>
       </c>
       <c r="E233">
@@ -23867,7 +25170,7 @@
         <v>3924</v>
       </c>
       <c r="D234" t="str">
-        <f>SUBSTITUTE(A234, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.108 </v>
       </c>
       <c r="E234">
@@ -23885,7 +25188,7 @@
         <v>3924</v>
       </c>
       <c r="D235" t="str">
-        <f>SUBSTITUTE(A235, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.106 </v>
       </c>
       <c r="E235">
@@ -23903,7 +25206,7 @@
         <v>3924</v>
       </c>
       <c r="D236" t="str">
-        <f>SUBSTITUTE(A236, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.104 </v>
       </c>
       <c r="E236">
@@ -23921,7 +25224,7 @@
         <v>3924</v>
       </c>
       <c r="D237" t="str">
-        <f>SUBSTITUTE(A237, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.103 </v>
       </c>
       <c r="E237">
@@ -23939,7 +25242,7 @@
         <v>3924</v>
       </c>
       <c r="D238" t="str">
-        <f>SUBSTITUTE(A238, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.103 </v>
       </c>
       <c r="E238">
@@ -23957,7 +25260,7 @@
         <v>3924</v>
       </c>
       <c r="D239" t="str">
-        <f>SUBSTITUTE(A239, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.100 </v>
       </c>
       <c r="E239">
@@ -23975,7 +25278,7 @@
         <v>3924</v>
       </c>
       <c r="D240" t="str">
-        <f>SUBSTITUTE(A240, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.100 </v>
       </c>
       <c r="E240">
@@ -23993,7 +25296,7 @@
         <v>3924</v>
       </c>
       <c r="D241" t="str">
-        <f>SUBSTITUTE(A241, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.098 </v>
       </c>
       <c r="E241">
@@ -24011,7 +25314,7 @@
         <v>4008</v>
       </c>
       <c r="D242" t="str">
-        <f>SUBSTITUTE(A242, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.100 </v>
       </c>
       <c r="E242">
@@ -24029,7 +25332,7 @@
         <v>4008</v>
       </c>
       <c r="D243" t="str">
-        <f>SUBSTITUTE(A243, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.100 </v>
       </c>
       <c r="E243">
@@ -24047,7 +25350,7 @@
         <v>4008</v>
       </c>
       <c r="D244" t="str">
-        <f>SUBSTITUTE(A244, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.099 </v>
       </c>
       <c r="E244">
@@ -24065,7 +25368,7 @@
         <v>4008</v>
       </c>
       <c r="D245" t="str">
-        <f>SUBSTITUTE(A245, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.097 </v>
       </c>
       <c r="E245">
@@ -24083,7 +25386,7 @@
         <v>4008</v>
       </c>
       <c r="D246" t="str">
-        <f>SUBSTITUTE(A246, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.096 </v>
       </c>
       <c r="E246">
@@ -24101,7 +25404,7 @@
         <v>4008</v>
       </c>
       <c r="D247" t="str">
-        <f>SUBSTITUTE(A247, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.096 </v>
       </c>
       <c r="E247">
@@ -24119,7 +25422,7 @@
         <v>4008</v>
       </c>
       <c r="D248" t="str">
-        <f>SUBSTITUTE(A248, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.093 </v>
       </c>
       <c r="E248">
@@ -24137,7 +25440,7 @@
         <v>4008</v>
       </c>
       <c r="D249" t="str">
-        <f>SUBSTITUTE(A249, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.090 </v>
       </c>
       <c r="E249">
@@ -24155,7 +25458,7 @@
         <v>4008</v>
       </c>
       <c r="D250" t="str">
-        <f>SUBSTITUTE(A250, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.089 </v>
       </c>
       <c r="E250">
@@ -24173,7 +25476,7 @@
         <v>4008</v>
       </c>
       <c r="D251" t="str">
-        <f>SUBSTITUTE(A251, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.088 </v>
       </c>
       <c r="E251">
@@ -24191,7 +25494,7 @@
         <v>4008</v>
       </c>
       <c r="D252" t="str">
-        <f>SUBSTITUTE(A252, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.088 </v>
       </c>
       <c r="E252">
@@ -24209,7 +25512,7 @@
         <v>4008</v>
       </c>
       <c r="D253" t="str">
-        <f>SUBSTITUTE(A253, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.085 </v>
       </c>
       <c r="E253">
@@ -24227,7 +25530,7 @@
         <v>4008</v>
       </c>
       <c r="D254" t="str">
-        <f>SUBSTITUTE(A254, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">4.084 </v>
       </c>
       <c r="E254">
@@ -24245,7 +25548,7 @@
         <v>4008</v>
       </c>
       <c r="D255" t="str">
-        <f>SUBSTITUTE(A255, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">6.317 </v>
       </c>
       <c r="E255">
@@ -24263,7 +25566,7 @@
         <v>4008</v>
       </c>
       <c r="D256" t="str">
-        <f>SUBSTITUTE(A256, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">6.392 </v>
       </c>
       <c r="E256">
@@ -24281,7 +25584,7 @@
         <v>3924</v>
       </c>
       <c r="D257" t="str">
-        <f>SUBSTITUTE(A257, "mS/cm", "")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">6.382 </v>
       </c>
       <c r="E257">
@@ -24299,7 +25602,7 @@
         <v>3924</v>
       </c>
       <c r="D258" t="str">
-        <f>SUBSTITUTE(A258, "mS/cm", "")</f>
+        <f t="shared" ref="D258:D319" si="4">SUBSTITUTE(A258, "mS/cm", "")</f>
         <v xml:space="preserve">6.381 </v>
       </c>
       <c r="E258">
@@ -24317,7 +25620,7 @@
         <v>3924</v>
       </c>
       <c r="D259" t="str">
-        <f>SUBSTITUTE(A259, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">6.379 </v>
       </c>
       <c r="E259">
@@ -24335,7 +25638,7 @@
         <v>3924</v>
       </c>
       <c r="D260" t="str">
-        <f>SUBSTITUTE(A260, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">6.378 </v>
       </c>
       <c r="E260">
@@ -24353,7 +25656,7 @@
         <v>3924</v>
       </c>
       <c r="D261" t="str">
-        <f>SUBSTITUTE(A261, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">6.374 </v>
       </c>
       <c r="E261">
@@ -24371,7 +25674,7 @@
         <v>3924</v>
       </c>
       <c r="D262" t="str">
-        <f>SUBSTITUTE(A262, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">6.374 </v>
       </c>
       <c r="E262">
@@ -24389,7 +25692,7 @@
         <v>3924</v>
       </c>
       <c r="D263" t="str">
-        <f>SUBSTITUTE(A263, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">6.370 </v>
       </c>
       <c r="E263">
@@ -24407,7 +25710,7 @@
         <v>3924</v>
       </c>
       <c r="D264" t="str">
-        <f>SUBSTITUTE(A264, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">6.368 </v>
       </c>
       <c r="E264">
@@ -24425,7 +25728,7 @@
         <v>3924</v>
       </c>
       <c r="D265" t="str">
-        <f>SUBSTITUTE(A265, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">6.365 </v>
       </c>
       <c r="E265">
@@ -24443,7 +25746,7 @@
         <v>3924</v>
       </c>
       <c r="D266" t="str">
-        <f>SUBSTITUTE(A266, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">6.366 </v>
       </c>
       <c r="E266">
@@ -24461,7 +25764,7 @@
         <v>3924</v>
       </c>
       <c r="D267" t="str">
-        <f>SUBSTITUTE(A267, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">6.361 </v>
       </c>
       <c r="E267">
@@ -24479,7 +25782,7 @@
         <v>3924</v>
       </c>
       <c r="D268" t="str">
-        <f>SUBSTITUTE(A268, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">6.359 </v>
       </c>
       <c r="E268">
@@ -24497,7 +25800,7 @@
         <v>3924</v>
       </c>
       <c r="D269" t="str">
-        <f>SUBSTITUTE(A269, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">6.357 </v>
       </c>
       <c r="E269">
@@ -24515,7 +25818,7 @@
         <v>3924</v>
       </c>
       <c r="D270" t="str">
-        <f>SUBSTITUTE(A270, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">6.358 </v>
       </c>
       <c r="E270">
@@ -24533,7 +25836,7 @@
         <v>3924</v>
       </c>
       <c r="D271" t="str">
-        <f>SUBSTITUTE(A271, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">6.356 </v>
       </c>
       <c r="E271">
@@ -24551,7 +25854,7 @@
         <v>3924</v>
       </c>
       <c r="D272" t="str">
-        <f>SUBSTITUTE(A272, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">6.354 </v>
       </c>
       <c r="E272">
@@ -24569,7 +25872,7 @@
         <v>3924</v>
       </c>
       <c r="D273" t="str">
-        <f>SUBSTITUTE(A273, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v>24.72 uS/cm</v>
       </c>
       <c r="E273">
@@ -24587,7 +25890,7 @@
         <v>4324</v>
       </c>
       <c r="D274" t="str">
-        <f>SUBSTITUTE(A274, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">17.26 </v>
       </c>
       <c r="E274">
@@ -24605,7 +25908,7 @@
         <v>4321</v>
       </c>
       <c r="D275" t="str">
-        <f>SUBSTITUTE(A275, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v>286.2 uS/cm</v>
       </c>
       <c r="E275">
@@ -24614,265 +25917,265 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D276" t="str">
-        <f>SUBSTITUTE(A276, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D277" t="str">
-        <f>SUBSTITUTE(A277, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D278" t="str">
-        <f>SUBSTITUTE(A278, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D279" t="str">
-        <f>SUBSTITUTE(A279, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D280" t="str">
-        <f>SUBSTITUTE(A280, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D281" t="str">
-        <f>SUBSTITUTE(A281, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D282" t="str">
-        <f>SUBSTITUTE(A282, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D283" t="str">
-        <f>SUBSTITUTE(A283, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D284" t="str">
-        <f>SUBSTITUTE(A284, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D285" t="str">
-        <f>SUBSTITUTE(A285, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D286" t="str">
-        <f>SUBSTITUTE(A286, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D287" t="str">
-        <f>SUBSTITUTE(A287, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D288" t="str">
-        <f>SUBSTITUTE(A288, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D289" t="str">
-        <f>SUBSTITUTE(A289, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D290" t="str">
-        <f>SUBSTITUTE(A290, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D291" t="str">
-        <f>SUBSTITUTE(A291, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D292" t="str">
-        <f>SUBSTITUTE(A292, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D293" t="str">
-        <f>SUBSTITUTE(A293, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D294" t="str">
-        <f>SUBSTITUTE(A294, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D295" t="str">
-        <f>SUBSTITUTE(A295, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D296" t="str">
-        <f>SUBSTITUTE(A296, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D297" t="str">
-        <f>SUBSTITUTE(A297, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D298" t="str">
-        <f>SUBSTITUTE(A298, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D299" t="str">
-        <f>SUBSTITUTE(A299, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D300" t="str">
-        <f>SUBSTITUTE(A300, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D301" t="str">
-        <f>SUBSTITUTE(A301, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D302" t="str">
-        <f>SUBSTITUTE(A302, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D303" t="str">
-        <f>SUBSTITUTE(A303, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D304" t="str">
-        <f>SUBSTITUTE(A304, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D305" t="str">
-        <f>SUBSTITUTE(A305, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D306" t="str">
-        <f>SUBSTITUTE(A306, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D307" t="str">
-        <f>SUBSTITUTE(A307, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D308" t="str">
-        <f>SUBSTITUTE(A308, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D309" t="str">
-        <f>SUBSTITUTE(A309, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D310" t="str">
-        <f>SUBSTITUTE(A310, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D311" t="str">
-        <f>SUBSTITUTE(A311, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D312" t="str">
-        <f>SUBSTITUTE(A312, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D313" t="str">
-        <f>SUBSTITUTE(A313, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D314" t="str">
-        <f>SUBSTITUTE(A314, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D315" t="str">
-        <f>SUBSTITUTE(A315, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D316" t="str">
-        <f>SUBSTITUTE(A316, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D317" t="str">
-        <f>SUBSTITUTE(A317, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D318" t="str">
-        <f>SUBSTITUTE(A318, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D319" t="str">
-        <f>SUBSTITUTE(A319, "mS/cm", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -24885,6 +26188,5291 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E318"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>5220</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5221</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D2" t="str">
+        <f>SUBSTITUTE(A2, "mS/cm", "")</f>
+        <v xml:space="preserve">10.58 </v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>5218</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5219</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D3" t="str">
+        <f>SUBSTITUTE(A3, "mS/cm", "")</f>
+        <v xml:space="preserve">10.42 </v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5217</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D4" t="str">
+        <f>SUBSTITUTE(A4, "mS/cm", "")</f>
+        <v xml:space="preserve">10.19 </v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>5215</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5216</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D5" t="str">
+        <f>SUBSTITUTE(A5, "mS/cm", "")</f>
+        <v xml:space="preserve">9.919 </v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>5213</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5214</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D6" t="str">
+        <f>SUBSTITUTE(A6, "mS/cm", "")</f>
+        <v xml:space="preserve">9.630 </v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>5211</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>5212</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D7" t="str">
+        <f>SUBSTITUTE(A7, "mS/cm", "")</f>
+        <v xml:space="preserve">9.343 </v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>5209</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>5210</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D8" t="str">
+        <f>SUBSTITUTE(A8, "mS/cm", "")</f>
+        <v xml:space="preserve">9.075 </v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>5207</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>5208</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D9" t="str">
+        <f>SUBSTITUTE(A9, "mS/cm", "")</f>
+        <v xml:space="preserve">8.860 </v>
+      </c>
+      <c r="E9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>5205</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>5206</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D10" t="str">
+        <f>SUBSTITUTE(A10, "mS/cm", "")</f>
+        <v xml:space="preserve">8.624 </v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>5203</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>5204</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D11" t="str">
+        <f>SUBSTITUTE(A11, "mS/cm", "")</f>
+        <v xml:space="preserve">8.414 </v>
+      </c>
+      <c r="E11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>5201</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>5202</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D12" t="str">
+        <f>SUBSTITUTE(A12, "mS/cm", "")</f>
+        <v xml:space="preserve">8.213 </v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>5199</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>5200</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D13" t="str">
+        <f>SUBSTITUTE(A13, "mS/cm", "")</f>
+        <v xml:space="preserve">8.035 </v>
+      </c>
+      <c r="E13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>5197</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>5198</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D14" t="str">
+        <f>SUBSTITUTE(A14, "mS/cm", "")</f>
+        <v xml:space="preserve">7.867 </v>
+      </c>
+      <c r="E14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>5195</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>5196</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D15" t="str">
+        <f>SUBSTITUTE(A15, "mS/cm", "")</f>
+        <v xml:space="preserve">7.706 </v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>5193</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>5194</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D16" t="str">
+        <f>SUBSTITUTE(A16, "mS/cm", "")</f>
+        <v xml:space="preserve">7.568 </v>
+      </c>
+      <c r="E16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>5191</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>5192</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D17" t="str">
+        <f>SUBSTITUTE(A17, "mS/cm", "")</f>
+        <v xml:space="preserve">7.439 </v>
+      </c>
+      <c r="E17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>5189</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>5190</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D18" t="str">
+        <f>SUBSTITUTE(A18, "mS/cm", "")</f>
+        <v xml:space="preserve">7.329 </v>
+      </c>
+      <c r="E18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>5187</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>5188</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D19" t="str">
+        <f>SUBSTITUTE(A19, "mS/cm", "")</f>
+        <v xml:space="preserve">7.212 </v>
+      </c>
+      <c r="E19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>5185</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>5186</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D20" t="str">
+        <f>SUBSTITUTE(A20, "mS/cm", "")</f>
+        <v xml:space="preserve">7.097 </v>
+      </c>
+      <c r="E20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>5183</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>5184</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D21" t="str">
+        <f>SUBSTITUTE(A21, "mS/cm", "")</f>
+        <v xml:space="preserve">6.991 </v>
+      </c>
+      <c r="E21">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>5181</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>5182</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D22" t="str">
+        <f>SUBSTITUTE(A22, "mS/cm", "")</f>
+        <v xml:space="preserve">6.884 </v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>5179</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>5180</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D23" t="str">
+        <f>SUBSTITUTE(A23, "mS/cm", "")</f>
+        <v xml:space="preserve">6.796 </v>
+      </c>
+      <c r="E23">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>5177</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>5178</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D24" t="str">
+        <f>SUBSTITUTE(A24, "mS/cm", "")</f>
+        <v xml:space="preserve">6.702 </v>
+      </c>
+      <c r="E24">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>5175</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>5176</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D25" t="str">
+        <f>SUBSTITUTE(A25, "mS/cm", "")</f>
+        <v xml:space="preserve">6.616 </v>
+      </c>
+      <c r="E25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>5173</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>5174</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D26" t="str">
+        <f>SUBSTITUTE(A26, "mS/cm", "")</f>
+        <v xml:space="preserve">6.549 </v>
+      </c>
+      <c r="E26">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>5171</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>5172</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D27" t="str">
+        <f>SUBSTITUTE(A27, "mS/cm", "")</f>
+        <v xml:space="preserve">6.466 </v>
+      </c>
+      <c r="E27">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>5169</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>5170</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D28" t="str">
+        <f>SUBSTITUTE(A28, "mS/cm", "")</f>
+        <v xml:space="preserve">6.412 </v>
+      </c>
+      <c r="E28">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>5167</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>5168</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D29" t="str">
+        <f>SUBSTITUTE(A29, "mS/cm", "")</f>
+        <v xml:space="preserve">6.349 </v>
+      </c>
+      <c r="E29">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>5165</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>5166</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D30" t="str">
+        <f>SUBSTITUTE(A30, "mS/cm", "")</f>
+        <v xml:space="preserve">6.280 </v>
+      </c>
+      <c r="E30">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>5163</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>5164</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D31" t="str">
+        <f>SUBSTITUTE(A31, "mS/cm", "")</f>
+        <v xml:space="preserve">6.215 </v>
+      </c>
+      <c r="E31">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>5161</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>5162</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D32" t="str">
+        <f>SUBSTITUTE(A32, "mS/cm", "")</f>
+        <v xml:space="preserve">6.150 </v>
+      </c>
+      <c r="E32">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>5160</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D33" t="str">
+        <f>SUBSTITUTE(A33, "mS/cm", "")</f>
+        <v xml:space="preserve">6.099 </v>
+      </c>
+      <c r="E33">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>5158</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>5159</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D34" t="str">
+        <f>SUBSTITUTE(A34, "mS/cm", "")</f>
+        <v xml:space="preserve">6.046 </v>
+      </c>
+      <c r="E34">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>5156</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>5157</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D35" t="str">
+        <f>SUBSTITUTE(A35, "mS/cm", "")</f>
+        <v xml:space="preserve">5.995 </v>
+      </c>
+      <c r="E35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>5155</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D36" t="str">
+        <f>SUBSTITUTE(A36, "mS/cm", "")</f>
+        <v xml:space="preserve">5.942 </v>
+      </c>
+      <c r="E36">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>3713</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>5154</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D37" t="str">
+        <f>SUBSTITUTE(A37, "mS/cm", "")</f>
+        <v xml:space="preserve">5.910 </v>
+      </c>
+      <c r="E37">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>5152</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>5153</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D38" t="str">
+        <f>SUBSTITUTE(A38, "mS/cm", "")</f>
+        <v xml:space="preserve">5.864 </v>
+      </c>
+      <c r="E38">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>5150</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>5151</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D39" t="str">
+        <f>SUBSTITUTE(A39, "mS/cm", "")</f>
+        <v xml:space="preserve">5.815 </v>
+      </c>
+      <c r="E39">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>5149</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D40" t="str">
+        <f>SUBSTITUTE(A40, "mS/cm", "")</f>
+        <v xml:space="preserve">5.758 </v>
+      </c>
+      <c r="E40">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>5148</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D41" t="str">
+        <f>SUBSTITUTE(A41, "mS/cm", "")</f>
+        <v xml:space="preserve">5.720 </v>
+      </c>
+      <c r="E41">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>5146</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>5147</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D42" t="str">
+        <f>SUBSTITUTE(A42, "mS/cm", "")</f>
+        <v xml:space="preserve">5.677 </v>
+      </c>
+      <c r="E42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>3665</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>5145</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D43" t="str">
+        <f>SUBSTITUTE(A43, "mS/cm", "")</f>
+        <v xml:space="preserve">5.642 </v>
+      </c>
+      <c r="E43">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>5144</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D44" t="str">
+        <f>SUBSTITUTE(A44, "mS/cm", "")</f>
+        <v xml:space="preserve">5.605 </v>
+      </c>
+      <c r="E44">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>5142</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>5143</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D45" t="str">
+        <f>SUBSTITUTE(A45, "mS/cm", "")</f>
+        <v xml:space="preserve">5.570 </v>
+      </c>
+      <c r="E45">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>5140</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>5141</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D46" t="str">
+        <f>SUBSTITUTE(A46, "mS/cm", "")</f>
+        <v xml:space="preserve">5.542 </v>
+      </c>
+      <c r="E46">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>5139</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D47" t="str">
+        <f>SUBSTITUTE(A47, "mS/cm", "")</f>
+        <v xml:space="preserve">5.508 </v>
+      </c>
+      <c r="E47">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>5138</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D48" t="str">
+        <f>SUBSTITUTE(A48, "mS/cm", "")</f>
+        <v xml:space="preserve">5.486 </v>
+      </c>
+      <c r="E48">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>5137</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D49" t="str">
+        <f>SUBSTITUTE(A49, "mS/cm", "")</f>
+        <v xml:space="preserve">5.457 </v>
+      </c>
+      <c r="E49">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>5136</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D50" t="str">
+        <f>SUBSTITUTE(A50, "mS/cm", "")</f>
+        <v xml:space="preserve">5.426 </v>
+      </c>
+      <c r="E50">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>5135</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D51" t="str">
+        <f>SUBSTITUTE(A51, "mS/cm", "")</f>
+        <v xml:space="preserve">5.397 </v>
+      </c>
+      <c r="E51">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>5134</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D52" t="str">
+        <f>SUBSTITUTE(A52, "mS/cm", "")</f>
+        <v xml:space="preserve">5.368 </v>
+      </c>
+      <c r="E52">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>5133</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D53" t="str">
+        <f>SUBSTITUTE(A53, "mS/cm", "")</f>
+        <v xml:space="preserve">5.340 </v>
+      </c>
+      <c r="E53">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>5132</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D54" t="str">
+        <f>SUBSTITUTE(A54, "mS/cm", "")</f>
+        <v xml:space="preserve">5.316 </v>
+      </c>
+      <c r="E54">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>5131</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D55" t="str">
+        <f>SUBSTITUTE(A55, "mS/cm", "")</f>
+        <v xml:space="preserve">5.296 </v>
+      </c>
+      <c r="E55">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>5129</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>5130</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D56" t="str">
+        <f>SUBSTITUTE(A56, "mS/cm", "")</f>
+        <v xml:space="preserve">5.271 </v>
+      </c>
+      <c r="E56">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>5128</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D57" t="str">
+        <f>SUBSTITUTE(A57, "mS/cm", "")</f>
+        <v xml:space="preserve">5.248 </v>
+      </c>
+      <c r="E57">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>5126</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>5127</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D58" t="str">
+        <f>SUBSTITUTE(A58, "mS/cm", "")</f>
+        <v xml:space="preserve">5.223 </v>
+      </c>
+      <c r="E58">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>5125</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D59" t="str">
+        <f>SUBSTITUTE(A59, "mS/cm", "")</f>
+        <v xml:space="preserve">5.199 </v>
+      </c>
+      <c r="E59">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>5124</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D60" t="str">
+        <f>SUBSTITUTE(A60, "mS/cm", "")</f>
+        <v xml:space="preserve">5.177 </v>
+      </c>
+      <c r="E60">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>5123</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D61" t="str">
+        <f>SUBSTITUTE(A61, "mS/cm", "")</f>
+        <v xml:space="preserve">5.155 </v>
+      </c>
+      <c r="E61">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>3502</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>5122</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D62" t="str">
+        <f>SUBSTITUTE(A62, "mS/cm", "")</f>
+        <v xml:space="preserve">5.136 </v>
+      </c>
+      <c r="E62">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>5121</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D63" t="str">
+        <f>SUBSTITUTE(A63, "mS/cm", "")</f>
+        <v xml:space="preserve">5.114 </v>
+      </c>
+      <c r="E63">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>4002</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>5120</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D64" t="str">
+        <f>SUBSTITUTE(A64, "mS/cm", "")</f>
+        <v xml:space="preserve">5.108 </v>
+      </c>
+      <c r="E64">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>3039</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>5119</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D65" t="str">
+        <f>SUBSTITUTE(A65, "mS/cm", "")</f>
+        <v xml:space="preserve">5.087 </v>
+      </c>
+      <c r="E65">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>5117</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>5118</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D66" t="str">
+        <f>SUBSTITUTE(A66, "mS/cm", "")</f>
+        <v xml:space="preserve">5.071 </v>
+      </c>
+      <c r="E66">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>5115</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>5116</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D67" t="str">
+        <f>SUBSTITUTE(A67, "mS/cm", "")</f>
+        <v xml:space="preserve">5.051 </v>
+      </c>
+      <c r="E67">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>5114</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D68" t="str">
+        <f>SUBSTITUTE(A68, "mS/cm", "")</f>
+        <v xml:space="preserve">5.032 </v>
+      </c>
+      <c r="E68">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>5112</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>5113</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D69" t="str">
+        <f>SUBSTITUTE(A69, "mS/cm", "")</f>
+        <v xml:space="preserve">5.016 </v>
+      </c>
+      <c r="E69">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>5110</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>5111</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D70" t="str">
+        <f>SUBSTITUTE(A70, "mS/cm", "")</f>
+        <v xml:space="preserve">4.999 </v>
+      </c>
+      <c r="E70">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>5109</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D71" t="str">
+        <f>SUBSTITUTE(A71, "mS/cm", "")</f>
+        <v xml:space="preserve">4.984 </v>
+      </c>
+      <c r="E71">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>5108</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D72" t="str">
+        <f>SUBSTITUTE(A72, "mS/cm", "")</f>
+        <v xml:space="preserve">4.966 </v>
+      </c>
+      <c r="E72">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>5106</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>5107</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D73" t="str">
+        <f>SUBSTITUTE(A73, "mS/cm", "")</f>
+        <v xml:space="preserve">4.948 </v>
+      </c>
+      <c r="E73">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>5104</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>5105</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D74" t="str">
+        <f>SUBSTITUTE(A74, "mS/cm", "")</f>
+        <v xml:space="preserve">4.937 </v>
+      </c>
+      <c r="E74">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>5102</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>5103</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D75" t="str">
+        <f>SUBSTITUTE(A75, "mS/cm", "")</f>
+        <v xml:space="preserve">4.923 </v>
+      </c>
+      <c r="E75">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>5101</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D76" t="str">
+        <f>SUBSTITUTE(A76, "mS/cm", "")</f>
+        <v xml:space="preserve">4.908 </v>
+      </c>
+      <c r="E76">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>5100</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D77" t="str">
+        <f>SUBSTITUTE(A77, "mS/cm", "")</f>
+        <v xml:space="preserve">4.895 </v>
+      </c>
+      <c r="E77">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>5099</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D78" t="str">
+        <f>SUBSTITUTE(A78, "mS/cm", "")</f>
+        <v xml:space="preserve">4.882 </v>
+      </c>
+      <c r="E78">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>4668</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>5098</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D79" t="str">
+        <f>SUBSTITUTE(A79, "mS/cm", "")</f>
+        <v xml:space="preserve">4.867 </v>
+      </c>
+      <c r="E79">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>5096</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>5097</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D80" t="str">
+        <f>SUBSTITUTE(A80, "mS/cm", "")</f>
+        <v xml:space="preserve">4.852 </v>
+      </c>
+      <c r="E80">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>5095</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D81" t="str">
+        <f>SUBSTITUTE(A81, "mS/cm", "")</f>
+        <v xml:space="preserve">4.839 </v>
+      </c>
+      <c r="E81">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>5093</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>5094</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D82" t="str">
+        <f>SUBSTITUTE(A82, "mS/cm", "")</f>
+        <v xml:space="preserve">4.826 </v>
+      </c>
+      <c r="E82">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>5091</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>5092</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D83" t="str">
+        <f>SUBSTITUTE(A83, "mS/cm", "")</f>
+        <v xml:space="preserve">4.815 </v>
+      </c>
+      <c r="E83">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>5089</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>5090</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D84" t="str">
+        <f>SUBSTITUTE(A84, "mS/cm", "")</f>
+        <v xml:space="preserve">4.803 </v>
+      </c>
+      <c r="E84">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>5088</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D85" t="str">
+        <f>SUBSTITUTE(A85, "mS/cm", "")</f>
+        <v xml:space="preserve">4.790 </v>
+      </c>
+      <c r="E85">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>5087</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D86" t="str">
+        <f>SUBSTITUTE(A86, "mS/cm", "")</f>
+        <v xml:space="preserve">4.777 </v>
+      </c>
+      <c r="E86">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>5086</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D87" t="str">
+        <f>SUBSTITUTE(A87, "mS/cm", "")</f>
+        <v xml:space="preserve">4.766 </v>
+      </c>
+      <c r="E87">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>5084</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>5085</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D88" t="str">
+        <f>SUBSTITUTE(A88, "mS/cm", "")</f>
+        <v xml:space="preserve">4.764 </v>
+      </c>
+      <c r="E88">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>5083</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D89" t="str">
+        <f>SUBSTITUTE(A89, "mS/cm", "")</f>
+        <v xml:space="preserve">4.752 </v>
+      </c>
+      <c r="E89">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>5081</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>5082</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D90" t="str">
+        <f>SUBSTITUTE(A90, "mS/cm", "")</f>
+        <v xml:space="preserve">4.742 </v>
+      </c>
+      <c r="E90">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>5080</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D91" t="str">
+        <f>SUBSTITUTE(A91, "mS/cm", "")</f>
+        <v xml:space="preserve">4.732 </v>
+      </c>
+      <c r="E91">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>5079</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D92" t="str">
+        <f>SUBSTITUTE(A92, "mS/cm", "")</f>
+        <v xml:space="preserve">4.721 </v>
+      </c>
+      <c r="E92">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>5077</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>5078</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D93" t="str">
+        <f>SUBSTITUTE(A93, "mS/cm", "")</f>
+        <v xml:space="preserve">4.711 </v>
+      </c>
+      <c r="E93">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>5076</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D94" t="str">
+        <f>SUBSTITUTE(A94, "mS/cm", "")</f>
+        <v xml:space="preserve">4.701 </v>
+      </c>
+      <c r="E94">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>5075</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D95" t="str">
+        <f>SUBSTITUTE(A95, "mS/cm", "")</f>
+        <v xml:space="preserve">4.691 </v>
+      </c>
+      <c r="E95">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>5073</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>5074</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D96" t="str">
+        <f>SUBSTITUTE(A96, "mS/cm", "")</f>
+        <v xml:space="preserve">4.681 </v>
+      </c>
+      <c r="E96">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>5071</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>5072</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D97" t="str">
+        <f>SUBSTITUTE(A97, "mS/cm", "")</f>
+        <v xml:space="preserve">4.672 </v>
+      </c>
+      <c r="E97">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>5070</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D98" t="str">
+        <f>SUBSTITUTE(A98, "mS/cm", "")</f>
+        <v xml:space="preserve">4.663 </v>
+      </c>
+      <c r="E98">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>5069</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D99" t="str">
+        <f>SUBSTITUTE(A99, "mS/cm", "")</f>
+        <v xml:space="preserve">4.653 </v>
+      </c>
+      <c r="E99">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>5068</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D100" t="str">
+        <f>SUBSTITUTE(A100, "mS/cm", "")</f>
+        <v xml:space="preserve">4.644 </v>
+      </c>
+      <c r="E100">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>5067</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D101" t="str">
+        <f>SUBSTITUTE(A101, "mS/cm", "")</f>
+        <v xml:space="preserve">4.637 </v>
+      </c>
+      <c r="E101">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>5066</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D102" t="str">
+        <f>SUBSTITUTE(A102, "mS/cm", "")</f>
+        <v xml:space="preserve">4.629 </v>
+      </c>
+      <c r="E102">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>5065</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D103" t="str">
+        <f>SUBSTITUTE(A103, "mS/cm", "")</f>
+        <v xml:space="preserve">4.622 </v>
+      </c>
+      <c r="E103">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>5064</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D104" t="str">
+        <f>SUBSTITUTE(A104, "mS/cm", "")</f>
+        <v xml:space="preserve">4.611 </v>
+      </c>
+      <c r="E104">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>5063</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D105" t="str">
+        <f>SUBSTITUTE(A105, "mS/cm", "")</f>
+        <v xml:space="preserve">4.604 </v>
+      </c>
+      <c r="E105">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>5061</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>5062</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D106" t="str">
+        <f>SUBSTITUTE(A106, "mS/cm", "")</f>
+        <v xml:space="preserve">4.595 </v>
+      </c>
+      <c r="E106">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>5059</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>5060</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D107" t="str">
+        <f>SUBSTITUTE(A107, "mS/cm", "")</f>
+        <v xml:space="preserve">4.587 </v>
+      </c>
+      <c r="E107">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>5058</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D108" t="str">
+        <f>SUBSTITUTE(A108, "mS/cm", "")</f>
+        <v xml:space="preserve">4.580 </v>
+      </c>
+      <c r="E108">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>4626</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>5057</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D109" t="str">
+        <f>SUBSTITUTE(A109, "mS/cm", "")</f>
+        <v xml:space="preserve">4.572 </v>
+      </c>
+      <c r="E109">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>5056</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D110" t="str">
+        <f>SUBSTITUTE(A110, "mS/cm", "")</f>
+        <v xml:space="preserve">4.566 </v>
+      </c>
+      <c r="E110">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>5054</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>5055</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D111" t="str">
+        <f>SUBSTITUTE(A111, "mS/cm", "")</f>
+        <v xml:space="preserve">4.558 </v>
+      </c>
+      <c r="E111">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>5053</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D112" t="str">
+        <f>SUBSTITUTE(A112, "mS/cm", "")</f>
+        <v xml:space="preserve">4.550 </v>
+      </c>
+      <c r="E112">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>5051</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>5052</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D113" t="str">
+        <f>SUBSTITUTE(A113, "mS/cm", "")</f>
+        <v xml:space="preserve">4.543 </v>
+      </c>
+      <c r="E113">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>5050</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D114" t="str">
+        <f>SUBSTITUTE(A114, "mS/cm", "")</f>
+        <v xml:space="preserve">4.536 </v>
+      </c>
+      <c r="E114">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>5048</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>5049</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D115" t="str">
+        <f>SUBSTITUTE(A115, "mS/cm", "")</f>
+        <v xml:space="preserve">4.530 </v>
+      </c>
+      <c r="E115">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>5047</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D116" t="str">
+        <f>SUBSTITUTE(A116, "mS/cm", "")</f>
+        <v xml:space="preserve">4.522 </v>
+      </c>
+      <c r="E116">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>5046</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D117" t="str">
+        <f>SUBSTITUTE(A117, "mS/cm", "")</f>
+        <v xml:space="preserve">4.516 </v>
+      </c>
+      <c r="E117">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>5045</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D118" t="str">
+        <f>SUBSTITUTE(A118, "mS/cm", "")</f>
+        <v xml:space="preserve">4.508 </v>
+      </c>
+      <c r="E118">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>5044</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D119" t="str">
+        <f>SUBSTITUTE(A119, "mS/cm", "")</f>
+        <v xml:space="preserve">4.503 </v>
+      </c>
+      <c r="E119">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>5043</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D120" t="str">
+        <f>SUBSTITUTE(A120, "mS/cm", "")</f>
+        <v xml:space="preserve">4.497 </v>
+      </c>
+      <c r="E120">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>5042</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D121" t="str">
+        <f>SUBSTITUTE(A121, "mS/cm", "")</f>
+        <v xml:space="preserve">4.490 </v>
+      </c>
+      <c r="E121">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>5041</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D122" t="str">
+        <f>SUBSTITUTE(A122, "mS/cm", "")</f>
+        <v xml:space="preserve">4.484 </v>
+      </c>
+      <c r="E122">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>5040</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D123" t="str">
+        <f>SUBSTITUTE(A123, "mS/cm", "")</f>
+        <v xml:space="preserve">4.478 </v>
+      </c>
+      <c r="E123">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>5039</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D124" t="str">
+        <f>SUBSTITUTE(A124, "mS/cm", "")</f>
+        <v xml:space="preserve">4.473 </v>
+      </c>
+      <c r="E124">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>5038</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D125" t="str">
+        <f>SUBSTITUTE(A125, "mS/cm", "")</f>
+        <v xml:space="preserve">4.466 </v>
+      </c>
+      <c r="E125">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>5037</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D126" t="str">
+        <f>SUBSTITUTE(A126, "mS/cm", "")</f>
+        <v xml:space="preserve">4.460 </v>
+      </c>
+      <c r="E126">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>5036</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D127" t="str">
+        <f>SUBSTITUTE(A127, "mS/cm", "")</f>
+        <v xml:space="preserve">4.454 </v>
+      </c>
+      <c r="E127">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>5035</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D128" t="str">
+        <f>SUBSTITUTE(A128, "mS/cm", "")</f>
+        <v xml:space="preserve">4.449 </v>
+      </c>
+      <c r="E128">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>5034</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D129" t="str">
+        <f>SUBSTITUTE(A129, "mS/cm", "")</f>
+        <v xml:space="preserve">4.444 </v>
+      </c>
+      <c r="E129">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>4601</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>5033</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D130" t="str">
+        <f>SUBSTITUTE(A130, "mS/cm", "")</f>
+        <v xml:space="preserve">4.439 </v>
+      </c>
+      <c r="E130">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>4598</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>5032</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D131" t="str">
+        <f>SUBSTITUTE(A131, "mS/cm", "")</f>
+        <v xml:space="preserve">4.434 </v>
+      </c>
+      <c r="E131">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>5030</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>5031</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D132" t="str">
+        <f>SUBSTITUTE(A132, "mS/cm", "")</f>
+        <v xml:space="preserve">4.429 </v>
+      </c>
+      <c r="E132">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>5028</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>5029</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D133" t="str">
+        <f>SUBSTITUTE(A133, "mS/cm", "")</f>
+        <v xml:space="preserve">4.423 </v>
+      </c>
+      <c r="E133">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>4592</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>5027</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D134" t="str">
+        <f>SUBSTITUTE(A134, "mS/cm", "")</f>
+        <v xml:space="preserve">4.417 </v>
+      </c>
+      <c r="E134">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>5025</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>5026</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D135" t="str">
+        <f>SUBSTITUTE(A135, "mS/cm", "")</f>
+        <v xml:space="preserve">4.412 </v>
+      </c>
+      <c r="E135">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>5023</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>5024</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D136" t="str">
+        <f>SUBSTITUTE(A136, "mS/cm", "")</f>
+        <v xml:space="preserve">4.414 </v>
+      </c>
+      <c r="E136">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>4590</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>5022</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D137" t="str">
+        <f>SUBSTITUTE(A137, "mS/cm", "")</f>
+        <v xml:space="preserve">4.410 </v>
+      </c>
+      <c r="E137">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>4588</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>5021</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D138" t="str">
+        <f>SUBSTITUTE(A138, "mS/cm", "")</f>
+        <v xml:space="preserve">4.405 </v>
+      </c>
+      <c r="E138">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>5019</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>5020</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D139" t="str">
+        <f>SUBSTITUTE(A139, "mS/cm", "")</f>
+        <v xml:space="preserve">4.399 </v>
+      </c>
+      <c r="E139">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>5017</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>5018</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D140" t="str">
+        <f>SUBSTITUTE(A140, "mS/cm", "")</f>
+        <v xml:space="preserve">4.395 </v>
+      </c>
+      <c r="E140">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>5015</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>5016</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D141" t="str">
+        <f>SUBSTITUTE(A141, "mS/cm", "")</f>
+        <v xml:space="preserve">4.391 </v>
+      </c>
+      <c r="E141">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>5013</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>5014</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D142" t="str">
+        <f>SUBSTITUTE(A142, "mS/cm", "")</f>
+        <v xml:space="preserve">4.386 </v>
+      </c>
+      <c r="E142">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>4578</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>5012</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D143" t="str">
+        <f>SUBSTITUTE(A143, "mS/cm", "")</f>
+        <v xml:space="preserve">4.381 </v>
+      </c>
+      <c r="E143">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>4576</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>5011</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D144" t="str">
+        <f>SUBSTITUTE(A144, "mS/cm", "")</f>
+        <v xml:space="preserve">4.376 </v>
+      </c>
+      <c r="E144">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
+        <v>5009</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>5010</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D145" t="str">
+        <f>SUBSTITUTE(A145, "mS/cm", "")</f>
+        <v xml:space="preserve">4.372 </v>
+      </c>
+      <c r="E145">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>4572</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>5008</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D146" t="str">
+        <f>SUBSTITUTE(A146, "mS/cm", "")</f>
+        <v xml:space="preserve">4.368 </v>
+      </c>
+      <c r="E146">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
+        <v>4570</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>5007</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D147" t="str">
+        <f>SUBSTITUTE(A147, "mS/cm", "")</f>
+        <v xml:space="preserve">4.363 </v>
+      </c>
+      <c r="E147">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>4568</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>5006</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D148" t="str">
+        <f>SUBSTITUTE(A148, "mS/cm", "")</f>
+        <v xml:space="preserve">4.360 </v>
+      </c>
+      <c r="E148">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>5004</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>5005</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D149" t="str">
+        <f>SUBSTITUTE(A149, "mS/cm", "")</f>
+        <v xml:space="preserve">4.356 </v>
+      </c>
+      <c r="E149">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
+        <v>5002</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>5003</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D150" t="str">
+        <f>SUBSTITUTE(A150, "mS/cm", "")</f>
+        <v xml:space="preserve">4.351 </v>
+      </c>
+      <c r="E150">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>5000</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>5001</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D151" t="str">
+        <f>SUBSTITUTE(A151, "mS/cm", "")</f>
+        <v xml:space="preserve">4.347 </v>
+      </c>
+      <c r="E151">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
+        <v>4998</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>4999</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D152" t="str">
+        <f>SUBSTITUTE(A152, "mS/cm", "")</f>
+        <v xml:space="preserve">4.343 </v>
+      </c>
+      <c r="E152">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
+        <v>4996</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>4997</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D153" t="str">
+        <f>SUBSTITUTE(A153, "mS/cm", "")</f>
+        <v xml:space="preserve">4.338 </v>
+      </c>
+      <c r="E153">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
+        <v>4994</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D154" t="str">
+        <f>SUBSTITUTE(A154, "mS/cm", "")</f>
+        <v xml:space="preserve">4.334 </v>
+      </c>
+      <c r="E154">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
+        <v>4992</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>4993</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D155" t="str">
+        <f>SUBSTITUTE(A155, "mS/cm", "")</f>
+        <v xml:space="preserve">4.330 </v>
+      </c>
+      <c r="E155">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>4990</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>4991</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D156" t="str">
+        <f>SUBSTITUTE(A156, "mS/cm", "")</f>
+        <v xml:space="preserve">4.327 </v>
+      </c>
+      <c r="E156">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
+        <v>4988</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>4989</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D157" t="str">
+        <f>SUBSTITUTE(A157, "mS/cm", "")</f>
+        <v xml:space="preserve">4.323 </v>
+      </c>
+      <c r="E157">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="s">
+        <v>4986</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>4987</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D158" t="str">
+        <f>SUBSTITUTE(A158, "mS/cm", "")</f>
+        <v xml:space="preserve">4.319 </v>
+      </c>
+      <c r="E158">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
+        <v>4984</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>4985</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D159" t="str">
+        <f>SUBSTITUTE(A159, "mS/cm", "")</f>
+        <v xml:space="preserve">4.316 </v>
+      </c>
+      <c r="E159">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>4547</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>4983</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D160" t="str">
+        <f>SUBSTITUTE(A160, "mS/cm", "")</f>
+        <v xml:space="preserve">4.311 </v>
+      </c>
+      <c r="E160">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>4981</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>4982</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D161" t="str">
+        <f>SUBSTITUTE(A161, "mS/cm", "")</f>
+        <v xml:space="preserve">4.308 </v>
+      </c>
+      <c r="E161">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>4980</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D162" t="str">
+        <f>SUBSTITUTE(A162, "mS/cm", "")</f>
+        <v xml:space="preserve">4.304 </v>
+      </c>
+      <c r="E162">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A163" s="8" t="s">
+        <v>4978</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>4979</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D163" t="str">
+        <f>SUBSTITUTE(A163, "mS/cm", "")</f>
+        <v xml:space="preserve">4.301 </v>
+      </c>
+      <c r="E163">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>4976</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>4977</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D164" t="str">
+        <f>SUBSTITUTE(A164, "mS/cm", "")</f>
+        <v xml:space="preserve">4.298 </v>
+      </c>
+      <c r="E164">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
+        <v>4974</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>4975</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D165" t="str">
+        <f>SUBSTITUTE(A165, "mS/cm", "")</f>
+        <v xml:space="preserve">4.294 </v>
+      </c>
+      <c r="E165">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
+        <v>4972</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>4973</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D166" t="str">
+        <f>SUBSTITUTE(A166, "mS/cm", "")</f>
+        <v xml:space="preserve">4.291 </v>
+      </c>
+      <c r="E166">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
+        <v>4970</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>4971</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D167" t="str">
+        <f>SUBSTITUTE(A167, "mS/cm", "")</f>
+        <v xml:space="preserve">4.288 </v>
+      </c>
+      <c r="E167">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
+        <v>4968</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>4969</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D168" t="str">
+        <f>SUBSTITUTE(A168, "mS/cm", "")</f>
+        <v xml:space="preserve">4.284 </v>
+      </c>
+      <c r="E168">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A169" s="8" t="s">
+        <v>4529</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>4967</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D169" t="str">
+        <f>SUBSTITUTE(A169, "mS/cm", "")</f>
+        <v xml:space="preserve">4.280 </v>
+      </c>
+      <c r="E169">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A170" s="8" t="s">
+        <v>4965</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>4966</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D170" t="str">
+        <f>SUBSTITUTE(A170, "mS/cm", "")</f>
+        <v xml:space="preserve">4.277 </v>
+      </c>
+      <c r="E170">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A171" s="8" t="s">
+        <v>4963</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>4964</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D171" t="str">
+        <f>SUBSTITUTE(A171, "mS/cm", "")</f>
+        <v xml:space="preserve">4.274 </v>
+      </c>
+      <c r="E171">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A172" s="8" t="s">
+        <v>4961</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>4962</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D172" t="str">
+        <f>SUBSTITUTE(A172, "mS/cm", "")</f>
+        <v xml:space="preserve">4.271 </v>
+      </c>
+      <c r="E172">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A173" s="8" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>4960</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D173" t="str">
+        <f>SUBSTITUTE(A173, "mS/cm", "")</f>
+        <v xml:space="preserve">4.267 </v>
+      </c>
+      <c r="E173">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A174" s="8" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>4958</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D174" t="str">
+        <f>SUBSTITUTE(A174, "mS/cm", "")</f>
+        <v xml:space="preserve">4.264 </v>
+      </c>
+      <c r="E174">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A175" s="8" t="s">
+        <v>4955</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>4956</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D175" t="str">
+        <f>SUBSTITUTE(A175, "mS/cm", "")</f>
+        <v xml:space="preserve">4.261 </v>
+      </c>
+      <c r="E175">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A176" s="8" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>4954</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D176" t="str">
+        <f>SUBSTITUTE(A176, "mS/cm", "")</f>
+        <v xml:space="preserve">4.259 </v>
+      </c>
+      <c r="E176">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A177" s="8" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>4952</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D177" t="str">
+        <f>SUBSTITUTE(A177, "mS/cm", "")</f>
+        <v xml:space="preserve">4.256 </v>
+      </c>
+      <c r="E177">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A178" s="8" t="s">
+        <v>4949</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>4950</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D178" t="str">
+        <f>SUBSTITUTE(A178, "mS/cm", "")</f>
+        <v xml:space="preserve">4.252 </v>
+      </c>
+      <c r="E178">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A179" s="8" t="s">
+        <v>4511</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>4948</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D179" t="str">
+        <f>SUBSTITUTE(A179, "mS/cm", "")</f>
+        <v xml:space="preserve">4.249 </v>
+      </c>
+      <c r="E179">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A180" s="8" t="s">
+        <v>4946</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>4947</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D180" t="str">
+        <f>SUBSTITUTE(A180, "mS/cm", "")</f>
+        <v xml:space="preserve">4.246 </v>
+      </c>
+      <c r="E180">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A181" s="8" t="s">
+        <v>4506</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>4945</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D181" t="str">
+        <f>SUBSTITUTE(A181, "mS/cm", "")</f>
+        <v xml:space="preserve">4.243 </v>
+      </c>
+      <c r="E181">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A182" s="8" t="s">
+        <v>4943</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>4944</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D182" t="str">
+        <f>SUBSTITUTE(A182, "mS/cm", "")</f>
+        <v xml:space="preserve">4.241 </v>
+      </c>
+      <c r="E182">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A183" s="8" t="s">
+        <v>4941</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>4942</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D183" t="str">
+        <f>SUBSTITUTE(A183, "mS/cm", "")</f>
+        <v xml:space="preserve">4.238 </v>
+      </c>
+      <c r="E183">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A184" s="8" t="s">
+        <v>4939</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>4940</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D184" t="str">
+        <f>SUBSTITUTE(A184, "mS/cm", "")</f>
+        <v xml:space="preserve">4.235 </v>
+      </c>
+      <c r="E184">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A185" s="8" t="s">
+        <v>4498</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>4938</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D185" t="str">
+        <f>SUBSTITUTE(A185, "mS/cm", "")</f>
+        <v xml:space="preserve">4.232 </v>
+      </c>
+      <c r="E185">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A186" s="8" t="s">
+        <v>4936</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>4937</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D186" t="str">
+        <f>SUBSTITUTE(A186, "mS/cm", "")</f>
+        <v xml:space="preserve">4.230 </v>
+      </c>
+      <c r="E186">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A187" s="8" t="s">
+        <v>4934</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>4935</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D187" t="str">
+        <f>SUBSTITUTE(A187, "mS/cm", "")</f>
+        <v xml:space="preserve">4.227 </v>
+      </c>
+      <c r="E187">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A188" s="8" t="s">
+        <v>4494</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>4933</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D188" t="str">
+        <f>SUBSTITUTE(A188, "mS/cm", "")</f>
+        <v xml:space="preserve">4.224 </v>
+      </c>
+      <c r="E188">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
+        <v>4492</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>4932</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D189" t="str">
+        <f>SUBSTITUTE(A189, "mS/cm", "")</f>
+        <v xml:space="preserve">4.222 </v>
+      </c>
+      <c r="E189">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A190" s="8" t="s">
+        <v>4930</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>4931</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D190" t="str">
+        <f>SUBSTITUTE(A190, "mS/cm", "")</f>
+        <v xml:space="preserve">4.219 </v>
+      </c>
+      <c r="E190">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A191" s="8" t="s">
+        <v>4928</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>4929</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D191" t="str">
+        <f>SUBSTITUTE(A191, "mS/cm", "")</f>
+        <v xml:space="preserve">4.217 </v>
+      </c>
+      <c r="E191">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A192" s="8" t="s">
+        <v>4486</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>4927</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D192" t="str">
+        <f>SUBSTITUTE(A192, "mS/cm", "")</f>
+        <v xml:space="preserve">4.213 </v>
+      </c>
+      <c r="E192">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A193" s="8" t="s">
+        <v>4484</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>4926</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D193" t="str">
+        <f>SUBSTITUTE(A193, "mS/cm", "")</f>
+        <v xml:space="preserve">4.212 </v>
+      </c>
+      <c r="E193">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A194" s="8" t="s">
+        <v>4924</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>4925</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D194" t="str">
+        <f>SUBSTITUTE(A194, "mS/cm", "")</f>
+        <v xml:space="preserve">4.210 </v>
+      </c>
+      <c r="E194">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A195" s="8" t="s">
+        <v>4480</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>4923</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D195" t="str">
+        <f>SUBSTITUTE(A195, "mS/cm", "")</f>
+        <v xml:space="preserve">4.207 </v>
+      </c>
+      <c r="E195">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A196" s="8" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>4922</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D196" t="str">
+        <f>SUBSTITUTE(A196, "mS/cm", "")</f>
+        <v xml:space="preserve">4.204 </v>
+      </c>
+      <c r="E196">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A197" s="8" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>4921</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D197" t="str">
+        <f>SUBSTITUTE(A197, "mS/cm", "")</f>
+        <v xml:space="preserve">4.202 </v>
+      </c>
+      <c r="E197">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A198" s="8" t="s">
+        <v>4919</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>4920</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D198" t="str">
+        <f>SUBSTITUTE(A198, "mS/cm", "")</f>
+        <v xml:space="preserve">4.199 </v>
+      </c>
+      <c r="E198">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A199" s="8" t="s">
+        <v>4917</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>4918</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D199" t="str">
+        <f>SUBSTITUTE(A199, "mS/cm", "")</f>
+        <v xml:space="preserve">4.197 </v>
+      </c>
+      <c r="E199">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A200" s="8" t="s">
+        <v>4472</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>4916</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D200" t="str">
+        <f>SUBSTITUTE(A200, "mS/cm", "")</f>
+        <v xml:space="preserve">4.195 </v>
+      </c>
+      <c r="E200">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A201" s="8" t="s">
+        <v>4914</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>4915</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D201" t="str">
+        <f>SUBSTITUTE(A201, "mS/cm", "")</f>
+        <v xml:space="preserve">4.192 </v>
+      </c>
+      <c r="E201">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A202" s="8" t="s">
+        <v>4912</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>4913</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D202" t="str">
+        <f>SUBSTITUTE(A202, "mS/cm", "")</f>
+        <v xml:space="preserve">4.190 </v>
+      </c>
+      <c r="E202">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A203" s="8" t="s">
+        <v>4466</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>4911</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D203" t="str">
+        <f>SUBSTITUTE(A203, "mS/cm", "")</f>
+        <v xml:space="preserve">4.187 </v>
+      </c>
+      <c r="E203">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A204" s="8" t="s">
+        <v>4464</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>4910</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D204" t="str">
+        <f>SUBSTITUTE(A204, "mS/cm", "")</f>
+        <v xml:space="preserve">4.185 </v>
+      </c>
+      <c r="E204">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A205" s="8" t="s">
+        <v>4462</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>4909</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D205" t="str">
+        <f>SUBSTITUTE(A205, "mS/cm", "")</f>
+        <v xml:space="preserve">4.183 </v>
+      </c>
+      <c r="E205">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A206" s="8" t="s">
+        <v>4907</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>4908</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D206" t="str">
+        <f>SUBSTITUTE(A206, "mS/cm", "")</f>
+        <v xml:space="preserve">4.180 </v>
+      </c>
+      <c r="E206">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A207" s="8" t="s">
+        <v>4905</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>4906</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D207" t="str">
+        <f>SUBSTITUTE(A207, "mS/cm", "")</f>
+        <v xml:space="preserve">4.178 </v>
+      </c>
+      <c r="E207">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A208" s="8" t="s">
+        <v>4456</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>4904</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D208" t="str">
+        <f>SUBSTITUTE(A208, "mS/cm", "")</f>
+        <v xml:space="preserve">4.176 </v>
+      </c>
+      <c r="E208">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A209" s="8" t="s">
+        <v>4454</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>4903</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D209" t="str">
+        <f>SUBSTITUTE(A209, "mS/cm", "")</f>
+        <v xml:space="preserve">4.174 </v>
+      </c>
+      <c r="E209">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A210" s="8" t="s">
+        <v>4901</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>4902</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D210" t="str">
+        <f>SUBSTITUTE(A210, "mS/cm", "")</f>
+        <v xml:space="preserve">4.171 </v>
+      </c>
+      <c r="E210">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A211" s="8" t="s">
+        <v>4451</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>4900</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D211" t="str">
+        <f>SUBSTITUTE(A211, "mS/cm", "")</f>
+        <v xml:space="preserve">4.170 </v>
+      </c>
+      <c r="E211">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A212" s="8" t="s">
+        <v>4898</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>4899</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D212" t="str">
+        <f>SUBSTITUTE(A212, "mS/cm", "")</f>
+        <v xml:space="preserve">4.167 </v>
+      </c>
+      <c r="E212">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A213" s="8" t="s">
+        <v>4896</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>4897</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D213" t="str">
+        <f>SUBSTITUTE(A213, "mS/cm", "")</f>
+        <v xml:space="preserve">4.165 </v>
+      </c>
+      <c r="E213">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A214" s="8" t="s">
+        <v>4445</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>4895</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D214" t="str">
+        <f>SUBSTITUTE(A214, "mS/cm", "")</f>
+        <v xml:space="preserve">4.163 </v>
+      </c>
+      <c r="E214">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A215" s="8" t="s">
+        <v>4893</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>4894</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D215" t="str">
+        <f>SUBSTITUTE(A215, "mS/cm", "")</f>
+        <v xml:space="preserve">4.161 </v>
+      </c>
+      <c r="E215">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A216" s="8" t="s">
+        <v>4443</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>4892</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D216" t="str">
+        <f>SUBSTITUTE(A216, "mS/cm", "")</f>
+        <v xml:space="preserve">4.160 </v>
+      </c>
+      <c r="E216">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A217" s="8" t="s">
+        <v>4441</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>4891</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D217" t="str">
+        <f>SUBSTITUTE(A217, "mS/cm", "")</f>
+        <v xml:space="preserve">4.158 </v>
+      </c>
+      <c r="E217">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A218" s="8" t="s">
+        <v>4889</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>4890</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D218" t="str">
+        <f>SUBSTITUTE(A218, "mS/cm", "")</f>
+        <v xml:space="preserve">4.156 </v>
+      </c>
+      <c r="E218">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A219" s="8" t="s">
+        <v>4437</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>4888</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D219" t="str">
+        <f>SUBSTITUTE(A219, "mS/cm", "")</f>
+        <v xml:space="preserve">4.153 </v>
+      </c>
+      <c r="E219">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A220" s="8" t="s">
+        <v>4886</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>4887</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D220" t="str">
+        <f>SUBSTITUTE(A220, "mS/cm", "")</f>
+        <v xml:space="preserve">4.151 </v>
+      </c>
+      <c r="E220">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A221" s="8" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>4885</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D221" t="str">
+        <f>SUBSTITUTE(A221, "mS/cm", "")</f>
+        <v xml:space="preserve">4.150 </v>
+      </c>
+      <c r="E221">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A222" s="8" t="s">
+        <v>4883</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>4884</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D222" t="str">
+        <f>SUBSTITUTE(A222, "mS/cm", "")</f>
+        <v xml:space="preserve">4.148 </v>
+      </c>
+      <c r="E222">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A223" s="8" t="s">
+        <v>4881</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>4882</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D223" t="str">
+        <f>SUBSTITUTE(A223, "mS/cm", "")</f>
+        <v xml:space="preserve">4.146 </v>
+      </c>
+      <c r="E223">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A224" s="8" t="s">
+        <v>4429</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>4880</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D224" t="str">
+        <f>SUBSTITUTE(A224, "mS/cm", "")</f>
+        <v xml:space="preserve">4.144 </v>
+      </c>
+      <c r="E224">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A225" s="8" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>4879</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D225" t="str">
+        <f>SUBSTITUTE(A225, "mS/cm", "")</f>
+        <v xml:space="preserve">4.142 </v>
+      </c>
+      <c r="E225">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A226" s="8" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>4878</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D226" t="str">
+        <f>SUBSTITUTE(A226, "mS/cm", "")</f>
+        <v xml:space="preserve">4.140 </v>
+      </c>
+      <c r="E226">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A227" s="8" t="s">
+        <v>4876</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>4877</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D227" t="str">
+        <f>SUBSTITUTE(A227, "mS/cm", "")</f>
+        <v xml:space="preserve">4.138 </v>
+      </c>
+      <c r="E227">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A228" s="8" t="s">
+        <v>4874</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>4875</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D228" t="str">
+        <f>SUBSTITUTE(A228, "mS/cm", "")</f>
+        <v xml:space="preserve">4.136 </v>
+      </c>
+      <c r="E228">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A229" s="8" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>4873</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D229" t="str">
+        <f>SUBSTITUTE(A229, "mS/cm", "")</f>
+        <v xml:space="preserve">4.135 </v>
+      </c>
+      <c r="E229">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A230" s="8" t="s">
+        <v>4871</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>4872</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D230" t="str">
+        <f>SUBSTITUTE(A230, "mS/cm", "")</f>
+        <v xml:space="preserve">4.134 </v>
+      </c>
+      <c r="E230">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A231" s="8" t="s">
+        <v>4869</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>4870</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D231" t="str">
+        <f>SUBSTITUTE(A231, "mS/cm", "")</f>
+        <v xml:space="preserve">4.132 </v>
+      </c>
+      <c r="E231">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A232" s="8" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>4868</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D232" t="str">
+        <f>SUBSTITUTE(A232, "mS/cm", "")</f>
+        <v xml:space="preserve">4.130 </v>
+      </c>
+      <c r="E232">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A233" s="8" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>4867</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D233" t="str">
+        <f>SUBSTITUTE(A233, "mS/cm", "")</f>
+        <v xml:space="preserve">4.127 </v>
+      </c>
+      <c r="E233">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A234" s="8" t="s">
+        <v>4865</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>4866</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D234" t="str">
+        <f>SUBSTITUTE(A234, "mS/cm", "")</f>
+        <v xml:space="preserve">4.126 </v>
+      </c>
+      <c r="E234">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A235" s="8" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>4864</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D235" t="str">
+        <f>SUBSTITUTE(A235, "mS/cm", "")</f>
+        <v xml:space="preserve">4.125 </v>
+      </c>
+      <c r="E235">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A236" s="8" t="s">
+        <v>4862</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>4863</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D236" t="str">
+        <f>SUBSTITUTE(A236, "mS/cm", "")</f>
+        <v xml:space="preserve">4.122 </v>
+      </c>
+      <c r="E236">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A237" s="8" t="s">
+        <v>4860</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>4861</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D237" t="str">
+        <f>SUBSTITUTE(A237, "mS/cm", "")</f>
+        <v xml:space="preserve">4.121 </v>
+      </c>
+      <c r="E237">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A238" s="8" t="s">
+        <v>4858</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>4859</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D238" t="str">
+        <f>SUBSTITUTE(A238, "mS/cm", "")</f>
+        <v xml:space="preserve">4.119 </v>
+      </c>
+      <c r="E238">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A239" s="8" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>4857</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D239" t="str">
+        <f>SUBSTITUTE(A239, "mS/cm", "")</f>
+        <v xml:space="preserve">4.117 </v>
+      </c>
+      <c r="E239">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A240" s="8" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>4856</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D240" t="str">
+        <f>SUBSTITUTE(A240, "mS/cm", "")</f>
+        <v xml:space="preserve">4.116 </v>
+      </c>
+      <c r="E240">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A241" s="8" t="s">
+        <v>4853</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>4854</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D241" t="str">
+        <f>SUBSTITUTE(A241, "mS/cm", "")</f>
+        <v xml:space="preserve">4.114 </v>
+      </c>
+      <c r="E241">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A242" s="8" t="s">
+        <v>4395</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>4852</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D242" t="str">
+        <f>SUBSTITUTE(A242, "mS/cm", "")</f>
+        <v xml:space="preserve">4.112 </v>
+      </c>
+      <c r="E242">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A243" s="8" t="s">
+        <v>4850</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>4851</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D243" t="str">
+        <f>SUBSTITUTE(A243, "mS/cm", "")</f>
+        <v xml:space="preserve">4.111 </v>
+      </c>
+      <c r="E243">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A244" s="8" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>4849</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D244" t="str">
+        <f>SUBSTITUTE(A244, "mS/cm", "")</f>
+        <v xml:space="preserve">4.109 </v>
+      </c>
+      <c r="E244">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A245" s="8" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>4848</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D245" t="str">
+        <f>SUBSTITUTE(A245, "mS/cm", "")</f>
+        <v xml:space="preserve">4.108 </v>
+      </c>
+      <c r="E245">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A246" s="8" t="s">
+        <v>4846</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>4847</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D246" t="str">
+        <f>SUBSTITUTE(A246, "mS/cm", "")</f>
+        <v xml:space="preserve">4.107 </v>
+      </c>
+      <c r="E246">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A247" s="8" t="s">
+        <v>4844</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>4845</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D247" t="str">
+        <f>SUBSTITUTE(A247, "mS/cm", "")</f>
+        <v xml:space="preserve">4.105 </v>
+      </c>
+      <c r="E247">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A248" s="8" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>4843</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D248" t="str">
+        <f>SUBSTITUTE(A248, "mS/cm", "")</f>
+        <v xml:space="preserve">4.103 </v>
+      </c>
+      <c r="E248">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A249" s="8" t="s">
+        <v>4841</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>4842</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D249" t="str">
+        <f>SUBSTITUTE(A249, "mS/cm", "")</f>
+        <v xml:space="preserve">4.102 </v>
+      </c>
+      <c r="E249">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A250" s="8" t="s">
+        <v>4839</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>4840</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D250" t="str">
+        <f>SUBSTITUTE(A250, "mS/cm", "")</f>
+        <v xml:space="preserve">4.101 </v>
+      </c>
+      <c r="E250">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A251" s="8" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>4838</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D251" t="str">
+        <f>SUBSTITUTE(A251, "mS/cm", "")</f>
+        <v xml:space="preserve">4.099 </v>
+      </c>
+      <c r="E251">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A252" s="8" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>4837</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D252" t="str">
+        <f>SUBSTITUTE(A252, "mS/cm", "")</f>
+        <v xml:space="preserve">4.097 </v>
+      </c>
+      <c r="E252">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A253" s="8" t="s">
+        <v>4834</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>4836</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D253" t="str">
+        <f>SUBSTITUTE(A253, "mS/cm", "")</f>
+        <v xml:space="preserve">4.095 </v>
+      </c>
+      <c r="E253">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A254" s="8" t="s">
+        <v>4834</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>4835</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D254" t="str">
+        <f>SUBSTITUTE(A254, "mS/cm", "")</f>
+        <v xml:space="preserve">4.095 </v>
+      </c>
+      <c r="E254">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A255" s="8" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>4833</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D255" t="str">
+        <f>SUBSTITUTE(A255, "mS/cm", "")</f>
+        <v xml:space="preserve">4.093 </v>
+      </c>
+      <c r="E255">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A256" s="8" t="s">
+        <v>4831</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>4832</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D256" t="str">
+        <f>SUBSTITUTE(A256, "mS/cm", "")</f>
+        <v xml:space="preserve">4.092 </v>
+      </c>
+      <c r="E256">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A257" s="8" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>4830</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D257" t="str">
+        <f>SUBSTITUTE(A257, "mS/cm", "")</f>
+        <v xml:space="preserve">4.090 </v>
+      </c>
+      <c r="E257">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A258" s="8" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>4829</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D258" t="str">
+        <f>SUBSTITUTE(A258, "mS/cm", "")</f>
+        <v xml:space="preserve">4.089 </v>
+      </c>
+      <c r="E258">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A259" s="8" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>4828</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D259" t="str">
+        <f>SUBSTITUTE(A259, "mS/cm", "")</f>
+        <v xml:space="preserve">4.088 </v>
+      </c>
+      <c r="E259">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A260" s="8" t="s">
+        <v>4826</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>4827</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D260" t="str">
+        <f>SUBSTITUTE(A260, "mS/cm", "")</f>
+        <v xml:space="preserve">4.087 </v>
+      </c>
+      <c r="E260">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A261" s="8" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>4825</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D261" t="str">
+        <f>SUBSTITUTE(A261, "mS/cm", "")</f>
+        <v xml:space="preserve">4.085 </v>
+      </c>
+      <c r="E261">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A262" s="8" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>4824</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D262" t="str">
+        <f>SUBSTITUTE(A262, "mS/cm", "")</f>
+        <v xml:space="preserve">4.084 </v>
+      </c>
+      <c r="E262">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A263" s="8" t="s">
+        <v>4822</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>4823</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D263" t="str">
+        <f>SUBSTITUTE(A263, "mS/cm", "")</f>
+        <v xml:space="preserve">4.082 </v>
+      </c>
+      <c r="E263">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A264" s="8" t="s">
+        <v>4820</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>4821</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D264" t="str">
+        <f>SUBSTITUTE(A264, "mS/cm", "")</f>
+        <v xml:space="preserve">4.081 </v>
+      </c>
+      <c r="E264">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A265" s="8" t="s">
+        <v>4818</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>4819</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D265" t="str">
+        <f>SUBSTITUTE(A265, "mS/cm", "")</f>
+        <v xml:space="preserve">4.080 </v>
+      </c>
+      <c r="E265">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A266" s="8" t="s">
+        <v>4816</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>4817</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D266" t="str">
+        <f>SUBSTITUTE(A266, "mS/cm", "")</f>
+        <v xml:space="preserve">4.079 </v>
+      </c>
+      <c r="E266">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A267" s="8" t="s">
+        <v>4814</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>4815</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D267" t="str">
+        <f>SUBSTITUTE(A267, "mS/cm", "")</f>
+        <v xml:space="preserve">4.077 </v>
+      </c>
+      <c r="E267">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A268" s="8" t="s">
+        <v>4812</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>4813</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D268" t="str">
+        <f>SUBSTITUTE(A268, "mS/cm", "")</f>
+        <v xml:space="preserve">4.076 </v>
+      </c>
+      <c r="E268">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A269" s="8" t="s">
+        <v>4810</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>4811</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D269" t="str">
+        <f>SUBSTITUTE(A269, "mS/cm", "")</f>
+        <v xml:space="preserve">4.074 </v>
+      </c>
+      <c r="E269">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A270" s="8" t="s">
+        <v>4808</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>4809</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D270" t="str">
+        <f>SUBSTITUTE(A270, "mS/cm", "")</f>
+        <v xml:space="preserve">4.073 </v>
+      </c>
+      <c r="E270">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A271" s="8" t="s">
+        <v>4806</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>4807</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D271" t="str">
+        <f>SUBSTITUTE(A271, "mS/cm", "")</f>
+        <v xml:space="preserve">4.072 </v>
+      </c>
+      <c r="E271">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A272" s="8" t="s">
+        <v>4804</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>4805</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D272" t="str">
+        <f>SUBSTITUTE(A272, "mS/cm", "")</f>
+        <v xml:space="preserve">4.071 </v>
+      </c>
+      <c r="E272">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A273" s="8" t="s">
+        <v>4802</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>4803</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D273" t="str">
+        <f>SUBSTITUTE(A273, "mS/cm", "")</f>
+        <v xml:space="preserve">4.070 </v>
+      </c>
+      <c r="E273">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A274" s="8" t="s">
+        <v>4800</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>4801</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D274" t="str">
+        <f>SUBSTITUTE(A274, "mS/cm", "")</f>
+        <v xml:space="preserve">4.068 </v>
+      </c>
+      <c r="E274">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A275" s="8" t="s">
+        <v>4798</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>4799</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D275" t="str">
+        <f>SUBSTITUTE(A275, "mS/cm", "")</f>
+        <v xml:space="preserve">4.067 </v>
+      </c>
+      <c r="E275">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A276" s="8" t="s">
+        <v>4796</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>4797</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D276" t="str">
+        <f>SUBSTITUTE(A276, "mS/cm", "")</f>
+        <v xml:space="preserve">4.066 </v>
+      </c>
+      <c r="E276">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A277" s="8" t="s">
+        <v>4794</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>4795</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D277" t="str">
+        <f>SUBSTITUTE(A277, "mS/cm", "")</f>
+        <v xml:space="preserve">4.065 </v>
+      </c>
+      <c r="E277">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A278" s="8" t="s">
+        <v>4792</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>4793</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D278" t="str">
+        <f>SUBSTITUTE(A278, "mS/cm", "")</f>
+        <v xml:space="preserve">4.064 </v>
+      </c>
+      <c r="E278">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A279" s="8" t="s">
+        <v>4790</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>4791</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D279" t="str">
+        <f>SUBSTITUTE(A279, "mS/cm", "")</f>
+        <v xml:space="preserve">4.063 </v>
+      </c>
+      <c r="E279">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A280" s="8" t="s">
+        <v>4788</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>4789</v>
+      </c>
+      <c r="C280" s="8" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D280" t="str">
+        <f>SUBSTITUTE(A280, "mS/cm", "")</f>
+        <v xml:space="preserve">3.584 </v>
+      </c>
+      <c r="E280">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D281" t="str">
+        <f>SUBSTITUTE(A281, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D282" t="str">
+        <f>SUBSTITUTE(A282, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D283" t="str">
+        <f>SUBSTITUTE(A283, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D284" t="str">
+        <f>SUBSTITUTE(A284, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D285" t="str">
+        <f>SUBSTITUTE(A285, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D286" t="str">
+        <f>SUBSTITUTE(A286, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D287" t="str">
+        <f>SUBSTITUTE(A287, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D288" t="str">
+        <f>SUBSTITUTE(A288, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D289" t="str">
+        <f>SUBSTITUTE(A289, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D290" t="str">
+        <f>SUBSTITUTE(A290, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D291" t="str">
+        <f>SUBSTITUTE(A291, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D292" t="str">
+        <f>SUBSTITUTE(A292, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D293" t="str">
+        <f>SUBSTITUTE(A293, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D294" t="str">
+        <f>SUBSTITUTE(A294, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D295" t="str">
+        <f>SUBSTITUTE(A295, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D296" t="str">
+        <f>SUBSTITUTE(A296, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D297" t="str">
+        <f>SUBSTITUTE(A297, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D298" t="str">
+        <f>SUBSTITUTE(A298, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D299" t="str">
+        <f>SUBSTITUTE(A299, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D300" t="str">
+        <f>SUBSTITUTE(A300, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D301" t="str">
+        <f>SUBSTITUTE(A301, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D302" t="str">
+        <f>SUBSTITUTE(A302, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D303" t="str">
+        <f>SUBSTITUTE(A303, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D304" t="str">
+        <f>SUBSTITUTE(A304, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D305" t="str">
+        <f>SUBSTITUTE(A305, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D306" t="str">
+        <f>SUBSTITUTE(A306, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D307" t="str">
+        <f>SUBSTITUTE(A307, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D308" t="str">
+        <f>SUBSTITUTE(A308, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D309" t="str">
+        <f>SUBSTITUTE(A309, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D310" t="str">
+        <f>SUBSTITUTE(A310, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D311" t="str">
+        <f>SUBSTITUTE(A311, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D312" t="str">
+        <f>SUBSTITUTE(A312, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D313" t="str">
+        <f>SUBSTITUTE(A313, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D314" t="str">
+        <f>SUBSTITUTE(A314, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D315" t="str">
+        <f>SUBSTITUTE(A315, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D316" t="str">
+        <f>SUBSTITUTE(A316, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D317" t="str">
+        <f>SUBSTITUTE(A317, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D318" t="str">
+        <f>SUBSTITUTE(A318, "mS/cm", "")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E318">
+    <sortCondition ref="E2:E318"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D387"/>
   <sheetViews>
@@ -31088,7 +37676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E387"/>
   <sheetViews>
@@ -35002,7 +41590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E387"/>
   <sheetViews>
